--- a/switzerland_exp_regression_and_montecarlo_covid19.xlsx
+++ b/switzerland_exp_regression_and_montecarlo_covid19.xlsx
@@ -352,7 +352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -420,7 +419,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -428,14 +426,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -443,14 +438,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -458,14 +450,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -473,14 +462,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -488,14 +474,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -503,14 +486,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -518,14 +498,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -533,14 +510,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -548,9 +522,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -702,10 +674,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>13793.0</c:v>
+                  <c:v>15496.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19147.0</c:v>
+                  <c:v>21659.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26577.0</c:v>
@@ -792,11 +764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-901758784"/>
-        <c:axId val="1886933072"/>
+        <c:axId val="-2078861712"/>
+        <c:axId val="1885879776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-901758784"/>
+        <c:axId val="-2078861712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +819,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -914,12 +885,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886933072"/>
+        <c:crossAx val="1885879776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1886933072"/>
+        <c:axId val="1885879776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +941,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1037,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-901758784"/>
+        <c:crossAx val="-2078861712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,13 +1406,13 @@
                   <c:v>4075.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5294.0</c:v>
+                  <c:v>11087.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13793.0</c:v>
+                  <c:v>15496.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19147.0</c:v>
+                  <c:v>21659.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>26577.0</c:v>
@@ -1529,11 +1499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1268758368"/>
-        <c:axId val="-2066234848"/>
+        <c:axId val="1886000736"/>
+        <c:axId val="-1063980592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1268758368"/>
+        <c:axId val="1886000736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,12 +1620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066234848"/>
+        <c:crossAx val="-1063980592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066234848"/>
+        <c:axId val="-1063980592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268758368"/>
+        <c:crossAx val="1886000736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2147,7 +2117,7 @@
                   <c:v>4075.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5294.0</c:v>
+                  <c:v>11086.43502149355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,11 +2132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1996363696"/>
-        <c:axId val="-2018772176"/>
+        <c:axId val="2121954032"/>
+        <c:axId val="1996294736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1996363696"/>
+        <c:axId val="2121954032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,12 +2249,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2018772176"/>
+        <c:crossAx val="1996294736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2018772176"/>
+        <c:axId val="1996294736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1996363696"/>
+        <c:crossAx val="2121954032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,31 +2573,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.7</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.6</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.6</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -2646,8 +2616,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1185215024"/>
-        <c:axId val="1894417104"/>
+        <c:axId val="-2064497936"/>
+        <c:axId val="-952655136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2718,28 +2688,28 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.9</c:v>
+                  <c:v>16.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.5</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.0</c:v>
+                  <c:v>70.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.6</c:v>
+                  <c:v>90.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.6</c:v>
+                  <c:v>98.69999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.9</c:v>
+                  <c:v>99.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>99.99999999999998</c:v>
@@ -2762,11 +2732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2051146512"/>
-        <c:axId val="-2070698144"/>
+        <c:axId val="-2050625216"/>
+        <c:axId val="-1274941216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1185215024"/>
+        <c:axId val="-2064497936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894417104"/>
+        <c:crossAx val="-952655136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894417104"/>
+        <c:axId val="-952655136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,12 +2948,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1185215024"/>
+        <c:crossAx val="-2064497936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2070698144"/>
+        <c:axId val="-1274941216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,12 +2990,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051146512"/>
+        <c:crossAx val="-2050625216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2051146512"/>
+        <c:axId val="-2050625216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070698144"/>
+        <c:crossAx val="-1274941216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5700,7 +5670,7 @@
   <dimension ref="A2:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5925,8 +5895,8 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <f>(25*SUM(H3:H27)-SUM(C3:C27)*SUM(F3:F27)) / (25*SUM(G3:G27)-SUM(C3:C27)^ 2)</f>
-        <v>0.14245089842317371</v>
+        <f>(24*SUM(H3:H26)-SUM(C3:C26)*SUM(F3:F26)) / (24*SUM(G3:G26)-SUM(C3:C26)^ 2)</f>
+        <v>0.14541425429524593</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5962,8 +5932,8 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <f>( SUM(F3:F27) -K8*SUM(C3:C27 ) ) / 25</f>
-        <v>0.43514021661662355</v>
+        <f>( SUM(F3:F26) -K8*SUM(C3:C26 ) ) / 24</f>
+        <v>0.4094577990586637</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -6030,7 +6000,7 @@
       </c>
       <c r="K11">
         <f>10^K9</f>
-        <v>2.7235805032253841</v>
+        <v>2.5671887390253123</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -6067,7 +6037,7 @@
       </c>
       <c r="K12">
         <f>10^K8</f>
-        <v>1.3881963508010644</v>
+        <v>1.3977009305056038</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -6190,7 +6160,7 @@
         <v>36.020202430806727</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -6220,7 +6190,7 @@
         <v>40.36622238184453</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6250,7 +6220,7 @@
         <v>45.027961531710723</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -6280,7 +6250,7 @@
         <v>47.842209127442644</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -6310,7 +6280,7 @@
         <v>55.017427033423807</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -6340,7 +6310,7 @@
         <v>59.531169677917397</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -6370,7 +6340,7 @@
         <v>66.848453616444118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6400,7 +6370,7 @@
         <v>70.190876297266328</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6430,7 +6400,7 @@
         <v>75.490002811497718</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6460,7 +6430,7 @@
         <v>80.066585029044816</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6490,7 +6460,7 @@
         <v>86.643062713823895</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -6500,16 +6470,17 @@
       <c r="C27" s="7">
         <v>25</v>
       </c>
-      <c r="D27" s="11">
-        <v>5294</v>
+      <c r="D27" s="10">
+        <f>2.5671*1.3977^C27</f>
+        <v>11086.435021493548</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="2"/>
-        <v>5294</v>
+        <v>11087</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>3.7237839369653294</v>
+        <v>4.0447919159060399</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -6517,10 +6488,13 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>93.094598424133238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>101.119797897651</v>
+      </c>
+      <c r="J27">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -6531,15 +6505,15 @@
         <v>26</v>
       </c>
       <c r="D28" s="10">
-        <f>2.7335*1.3881^C28</f>
-        <v>13792.998466901039</v>
+        <f>2.5671*1.3977^C28</f>
+        <v>15495.510229541531</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" ref="E28:E53" si="4">ROUNDUP(D28,0)</f>
-        <v>13793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -6550,15 +6524,15 @@
         <v>27</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" ref="D29:D53" si="5">2.7335*1.3881^C29</f>
-        <v>19146.061171905334</v>
+        <f>2.5671*1.3977^C29</f>
+        <v>21658.074647830199</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="4"/>
-        <v>19147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -6569,7 +6543,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D29:D53" si="5">2.7335*1.3881^C30</f>
         <v>26576.647512721789</v>
       </c>
       <c r="E30" s="10">
@@ -6577,7 +6551,7 @@
         <v>26577</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -6597,7 +6571,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -7127,7 +7101,7 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(F5,G5)</f>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -7138,39 +7112,39 @@
       </c>
       <c r="M5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;150")-COUNTIF(C34:C1033,"&lt;100")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;200")-COUNTIF(C34:C1033,"&lt;150")</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;250")-COUNTIF(C34:C1033,"&lt;200")</f>
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;300")-COUNTIF(C34:C1033,"&lt;250")</f>
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;350")-COUNTIF(C34:C1033,"&lt;300")</f>
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="R5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;400")-COUNTIF(C34:C1033,"&lt;350")</f>
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="S5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;450")-COUNTIF(C34:C1033,"&lt;400")</f>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;500")-COUNTIF(C34:C1033,"&lt;450")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;550")-COUNTIF(C34:C1033,"&lt;500")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <f ca="1">COUNTIF(C34:C1033,"&lt;600")-COUNTIF(C34:C1033,"&lt;550")</f>
@@ -7191,7 +7165,7 @@
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H10" ca="1" si="2">RANDBETWEEN(F6,G6)</f>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -7202,39 +7176,39 @@
       </c>
       <c r="M6">
         <f t="shared" ref="M6:V6" ca="1" si="3">M5*100/1000</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="3"/>
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="3"/>
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="3"/>
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="3"/>
@@ -7255,7 +7229,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -7266,35 +7240,35 @@
       </c>
       <c r="M7">
         <f ca="1">L7+M6</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:V7" ca="1" si="4">M7+N6</f>
-        <v>2.2000000000000002</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>13.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="4"/>
-        <v>39.5</v>
+        <v>41.6</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>91.6</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="4"/>
-        <v>98.6</v>
+        <v>98.699999999999989</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="4"/>
-        <v>99.899999999999991</v>
+        <v>99.799999999999983</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="4"/>
@@ -7319,7 +7293,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
@@ -7336,7 +7310,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
@@ -7353,14 +7327,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H11">
         <f ca="1">SUM(H5:H10)</f>
-        <v>402</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -7377,7 +7351,7 @@
       </c>
       <c r="C34">
         <f ca="1">H11</f>
-        <v>402</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -7386,7 +7360,7 @@
       </c>
       <c r="C35">
         <f t="dataTable" ref="C35:C1033" dt2D="0" dtr="0" r1="A34" ca="1"/>
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -7394,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -7402,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>168</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -7410,7 +7384,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -7418,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>349</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -7426,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -7434,7 +7408,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -7442,7 +7416,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -7450,7 +7424,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -7458,7 +7432,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>425</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -7466,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -7474,7 +7448,7 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -7482,7 +7456,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -7490,7 +7464,7 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>424</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -7498,7 +7472,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>286</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -7506,7 +7480,7 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>348</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -7514,7 +7488,7 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>424</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -7522,7 +7496,7 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>365</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -7530,7 +7504,7 @@
         <v>20</v>
       </c>
       <c r="C53">
-        <v>289</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -7538,7 +7512,7 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>219</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -7546,7 +7520,7 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -7554,7 +7528,7 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -7562,7 +7536,7 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -7570,7 +7544,7 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
@@ -7578,7 +7552,7 @@
         <v>26</v>
       </c>
       <c r="C59">
-        <v>321</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -7586,7 +7560,7 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -7594,7 +7568,7 @@
         <v>28</v>
       </c>
       <c r="C61">
-        <v>324</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -7602,7 +7576,7 @@
         <v>29</v>
       </c>
       <c r="C62">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
@@ -7610,7 +7584,7 @@
         <v>30</v>
       </c>
       <c r="C63">
-        <v>228</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
@@ -7618,7 +7592,7 @@
         <v>31</v>
       </c>
       <c r="C64">
-        <v>264</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -7626,7 +7600,7 @@
         <v>32</v>
       </c>
       <c r="C65">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -7634,7 +7608,7 @@
         <v>33</v>
       </c>
       <c r="C66">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
@@ -7642,7 +7616,7 @@
         <v>34</v>
       </c>
       <c r="C67">
-        <v>272</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
@@ -7650,7 +7624,7 @@
         <v>35</v>
       </c>
       <c r="C68">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
@@ -7658,7 +7632,7 @@
         <v>36</v>
       </c>
       <c r="C69">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -7666,7 +7640,7 @@
         <v>37</v>
       </c>
       <c r="C70">
-        <v>369</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
@@ -7674,7 +7648,7 @@
         <v>38</v>
       </c>
       <c r="C71">
-        <v>294</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
@@ -7682,7 +7656,7 @@
         <v>39</v>
       </c>
       <c r="C72">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
@@ -7690,7 +7664,7 @@
         <v>40</v>
       </c>
       <c r="C73">
-        <v>252</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -7698,7 +7672,7 @@
         <v>41</v>
       </c>
       <c r="C74">
-        <v>236</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -7706,7 +7680,7 @@
         <v>42</v>
       </c>
       <c r="C75">
-        <v>301</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
@@ -7714,7 +7688,7 @@
         <v>43</v>
       </c>
       <c r="C76">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
@@ -7722,7 +7696,7 @@
         <v>44</v>
       </c>
       <c r="C77">
-        <v>370</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -7730,7 +7704,7 @@
         <v>45</v>
       </c>
       <c r="C78">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
@@ -7738,7 +7712,7 @@
         <v>46</v>
       </c>
       <c r="C79">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
@@ -7746,7 +7720,7 @@
         <v>47</v>
       </c>
       <c r="C80">
-        <v>341</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -7754,7 +7728,7 @@
         <v>48</v>
       </c>
       <c r="C81">
-        <v>309</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
@@ -7762,7 +7736,7 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
@@ -7770,7 +7744,7 @@
         <v>50</v>
       </c>
       <c r="C83">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -7778,7 +7752,7 @@
         <v>51</v>
       </c>
       <c r="C84">
-        <v>353</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -7786,7 +7760,7 @@
         <v>52</v>
       </c>
       <c r="C85">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
@@ -7794,7 +7768,7 @@
         <v>53</v>
       </c>
       <c r="C86">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
@@ -7802,7 +7776,7 @@
         <v>54</v>
       </c>
       <c r="C87">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -7810,7 +7784,7 @@
         <v>55</v>
       </c>
       <c r="C88">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
@@ -7818,7 +7792,7 @@
         <v>56</v>
       </c>
       <c r="C89">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -7826,7 +7800,7 @@
         <v>57</v>
       </c>
       <c r="C90">
-        <v>322</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
@@ -7834,7 +7808,7 @@
         <v>58</v>
       </c>
       <c r="C91">
-        <v>394</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
@@ -7842,7 +7816,7 @@
         <v>59</v>
       </c>
       <c r="C92">
-        <v>180</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -7850,7 +7824,7 @@
         <v>60</v>
       </c>
       <c r="C93">
-        <v>491</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
@@ -7858,7 +7832,7 @@
         <v>61</v>
       </c>
       <c r="C94">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
@@ -7866,7 +7840,7 @@
         <v>62</v>
       </c>
       <c r="C95">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
@@ -7874,7 +7848,7 @@
         <v>63</v>
       </c>
       <c r="C96">
-        <v>374</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -7882,7 +7856,7 @@
         <v>64</v>
       </c>
       <c r="C97">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -7890,7 +7864,7 @@
         <v>65</v>
       </c>
       <c r="C98">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -7898,7 +7872,7 @@
         <v>66</v>
       </c>
       <c r="C99">
-        <v>242</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
@@ -7906,7 +7880,7 @@
         <v>67</v>
       </c>
       <c r="C100">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -7914,7 +7888,7 @@
         <v>68</v>
       </c>
       <c r="C101">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -7922,7 +7896,7 @@
         <v>69</v>
       </c>
       <c r="C102">
-        <v>293</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
@@ -7930,7 +7904,7 @@
         <v>70</v>
       </c>
       <c r="C103">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
@@ -7938,7 +7912,7 @@
         <v>71</v>
       </c>
       <c r="C104">
-        <v>328</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
@@ -7946,7 +7920,7 @@
         <v>72</v>
       </c>
       <c r="C105">
-        <v>412</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
@@ -7954,7 +7928,7 @@
         <v>73</v>
       </c>
       <c r="C106">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
@@ -7962,7 +7936,7 @@
         <v>74</v>
       </c>
       <c r="C107">
-        <v>317</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
@@ -7970,7 +7944,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>405</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
@@ -7978,7 +7952,7 @@
         <v>76</v>
       </c>
       <c r="C109">
-        <v>418</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
@@ -7986,7 +7960,7 @@
         <v>77</v>
       </c>
       <c r="C110">
-        <v>396</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
@@ -7994,7 +7968,7 @@
         <v>78</v>
       </c>
       <c r="C111">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
@@ -8002,7 +7976,7 @@
         <v>79</v>
       </c>
       <c r="C112">
-        <v>319</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
@@ -8010,7 +7984,7 @@
         <v>80</v>
       </c>
       <c r="C113">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
@@ -8018,7 +7992,7 @@
         <v>81</v>
       </c>
       <c r="C114">
-        <v>352</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
@@ -8026,7 +8000,7 @@
         <v>82</v>
       </c>
       <c r="C115">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
@@ -8034,7 +8008,7 @@
         <v>83</v>
       </c>
       <c r="C116">
-        <v>205</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
@@ -8042,7 +8016,7 @@
         <v>84</v>
       </c>
       <c r="C117">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
@@ -8050,7 +8024,7 @@
         <v>85</v>
       </c>
       <c r="C118">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
@@ -8058,7 +8032,7 @@
         <v>86</v>
       </c>
       <c r="C119">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
@@ -8066,7 +8040,7 @@
         <v>87</v>
       </c>
       <c r="C120">
-        <v>221</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
@@ -8074,7 +8048,7 @@
         <v>88</v>
       </c>
       <c r="C121">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
@@ -8082,7 +8056,7 @@
         <v>89</v>
       </c>
       <c r="C122">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
@@ -8090,7 +8064,7 @@
         <v>90</v>
       </c>
       <c r="C123">
-        <v>387</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
@@ -8098,7 +8072,7 @@
         <v>91</v>
       </c>
       <c r="C124">
-        <v>441</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
@@ -8106,7 +8080,7 @@
         <v>92</v>
       </c>
       <c r="C125">
-        <v>345</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
@@ -8114,7 +8088,7 @@
         <v>93</v>
       </c>
       <c r="C126">
-        <v>291</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
@@ -8122,7 +8096,7 @@
         <v>94</v>
       </c>
       <c r="C127">
-        <v>277</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
@@ -8130,7 +8104,7 @@
         <v>95</v>
       </c>
       <c r="C128">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
@@ -8138,7 +8112,7 @@
         <v>96</v>
       </c>
       <c r="C129">
-        <v>279</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
@@ -8146,7 +8120,7 @@
         <v>97</v>
       </c>
       <c r="C130">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
@@ -8154,7 +8128,7 @@
         <v>98</v>
       </c>
       <c r="C131">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
@@ -8162,7 +8136,7 @@
         <v>99</v>
       </c>
       <c r="C132">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
@@ -8170,7 +8144,7 @@
         <v>100</v>
       </c>
       <c r="C133">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
@@ -8178,7 +8152,7 @@
         <v>101</v>
       </c>
       <c r="C134">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
@@ -8186,7 +8160,7 @@
         <v>102</v>
       </c>
       <c r="C135">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
@@ -8194,7 +8168,7 @@
         <v>103</v>
       </c>
       <c r="C136">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
@@ -8202,7 +8176,7 @@
         <v>104</v>
       </c>
       <c r="C137">
-        <v>324</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
@@ -8210,7 +8184,7 @@
         <v>105</v>
       </c>
       <c r="C138">
-        <v>257</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
@@ -8218,7 +8192,7 @@
         <v>106</v>
       </c>
       <c r="C139">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
@@ -8226,7 +8200,7 @@
         <v>107</v>
       </c>
       <c r="C140">
-        <v>375</v>
+        <v>325</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
@@ -8234,7 +8208,7 @@
         <v>108</v>
       </c>
       <c r="C141">
-        <v>346</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
@@ -8242,7 +8216,7 @@
         <v>109</v>
       </c>
       <c r="C142">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
@@ -8250,7 +8224,7 @@
         <v>110</v>
       </c>
       <c r="C143">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
@@ -8258,7 +8232,7 @@
         <v>111</v>
       </c>
       <c r="C144">
-        <v>237</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
@@ -8266,7 +8240,7 @@
         <v>112</v>
       </c>
       <c r="C145">
-        <v>244</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
@@ -8274,7 +8248,7 @@
         <v>113</v>
       </c>
       <c r="C146">
-        <v>431</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
@@ -8282,7 +8256,7 @@
         <v>114</v>
       </c>
       <c r="C147">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
@@ -8290,7 +8264,7 @@
         <v>115</v>
       </c>
       <c r="C148">
-        <v>365</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
@@ -8298,7 +8272,7 @@
         <v>116</v>
       </c>
       <c r="C149">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
@@ -8306,7 +8280,7 @@
         <v>117</v>
       </c>
       <c r="C150">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
@@ -8314,7 +8288,7 @@
         <v>118</v>
       </c>
       <c r="C151">
-        <v>365</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
@@ -8322,7 +8296,7 @@
         <v>119</v>
       </c>
       <c r="C152">
-        <v>214</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
@@ -8330,7 +8304,7 @@
         <v>120</v>
       </c>
       <c r="C153">
-        <v>251</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
@@ -8338,7 +8312,7 @@
         <v>121</v>
       </c>
       <c r="C154">
-        <v>416</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
@@ -8346,7 +8320,7 @@
         <v>122</v>
       </c>
       <c r="C155">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
@@ -8354,7 +8328,7 @@
         <v>123</v>
       </c>
       <c r="C156">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
@@ -8362,7 +8336,7 @@
         <v>124</v>
       </c>
       <c r="C157">
-        <v>381</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
@@ -8370,7 +8344,7 @@
         <v>125</v>
       </c>
       <c r="C158">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
@@ -8378,7 +8352,7 @@
         <v>126</v>
       </c>
       <c r="C159">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
@@ -8386,7 +8360,7 @@
         <v>127</v>
       </c>
       <c r="C160">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
@@ -8394,7 +8368,7 @@
         <v>128</v>
       </c>
       <c r="C161">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
@@ -8402,7 +8376,7 @@
         <v>129</v>
       </c>
       <c r="C162">
-        <v>304</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -8410,7 +8384,7 @@
         <v>130</v>
       </c>
       <c r="C163">
-        <v>303</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
@@ -8418,7 +8392,7 @@
         <v>131</v>
       </c>
       <c r="C164">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
@@ -8426,7 +8400,7 @@
         <v>132</v>
       </c>
       <c r="C165">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
@@ -8434,7 +8408,7 @@
         <v>133</v>
       </c>
       <c r="C166">
-        <v>368</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
@@ -8442,7 +8416,7 @@
         <v>134</v>
       </c>
       <c r="C167">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
@@ -8450,7 +8424,7 @@
         <v>135</v>
       </c>
       <c r="C168">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
@@ -8458,7 +8432,7 @@
         <v>136</v>
       </c>
       <c r="C169">
-        <v>329</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
@@ -8466,7 +8440,7 @@
         <v>137</v>
       </c>
       <c r="C170">
-        <v>202</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
@@ -8474,7 +8448,7 @@
         <v>138</v>
       </c>
       <c r="C171">
-        <v>308</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
@@ -8482,7 +8456,7 @@
         <v>139</v>
       </c>
       <c r="C172">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
@@ -8490,7 +8464,7 @@
         <v>140</v>
       </c>
       <c r="C173">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
@@ -8498,7 +8472,7 @@
         <v>141</v>
       </c>
       <c r="C174">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
@@ -8506,7 +8480,7 @@
         <v>142</v>
       </c>
       <c r="C175">
-        <v>409</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
@@ -8514,7 +8488,7 @@
         <v>143</v>
       </c>
       <c r="C176">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
@@ -8522,7 +8496,7 @@
         <v>144</v>
       </c>
       <c r="C177">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
@@ -8530,7 +8504,7 @@
         <v>145</v>
       </c>
       <c r="C178">
-        <v>357</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
@@ -8538,7 +8512,7 @@
         <v>146</v>
       </c>
       <c r="C179">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
@@ -8546,7 +8520,7 @@
         <v>147</v>
       </c>
       <c r="C180">
-        <v>292</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -8554,7 +8528,7 @@
         <v>148</v>
       </c>
       <c r="C181">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
@@ -8562,7 +8536,7 @@
         <v>149</v>
       </c>
       <c r="C182">
-        <v>172</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
@@ -8570,7 +8544,7 @@
         <v>150</v>
       </c>
       <c r="C183">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
@@ -8578,7 +8552,7 @@
         <v>151</v>
       </c>
       <c r="C184">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
@@ -8586,7 +8560,7 @@
         <v>152</v>
       </c>
       <c r="C185">
-        <v>321</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
@@ -8594,7 +8568,7 @@
         <v>153</v>
       </c>
       <c r="C186">
-        <v>265</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
@@ -8602,7 +8576,7 @@
         <v>154</v>
       </c>
       <c r="C187">
-        <v>372</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
@@ -8610,7 +8584,7 @@
         <v>155</v>
       </c>
       <c r="C188">
-        <v>275</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
@@ -8618,7 +8592,7 @@
         <v>156</v>
       </c>
       <c r="C189">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
@@ -8626,7 +8600,7 @@
         <v>157</v>
       </c>
       <c r="C190">
-        <v>367</v>
+        <v>297</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
@@ -8634,7 +8608,7 @@
         <v>158</v>
       </c>
       <c r="C191">
-        <v>330</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
@@ -8642,7 +8616,7 @@
         <v>159</v>
       </c>
       <c r="C192">
-        <v>373</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
@@ -8650,7 +8624,7 @@
         <v>160</v>
       </c>
       <c r="C193">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
@@ -8658,7 +8632,7 @@
         <v>161</v>
       </c>
       <c r="C194">
-        <v>432</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
@@ -8666,7 +8640,7 @@
         <v>162</v>
       </c>
       <c r="C195">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
@@ -8674,7 +8648,7 @@
         <v>163</v>
       </c>
       <c r="C196">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
@@ -8682,7 +8656,7 @@
         <v>164</v>
       </c>
       <c r="C197">
-        <v>387</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
@@ -8690,7 +8664,7 @@
         <v>165</v>
       </c>
       <c r="C198">
-        <v>232</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
@@ -8698,7 +8672,7 @@
         <v>166</v>
       </c>
       <c r="C199">
-        <v>289</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
@@ -8706,7 +8680,7 @@
         <v>167</v>
       </c>
       <c r="C200">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
@@ -8714,7 +8688,7 @@
         <v>168</v>
       </c>
       <c r="C201">
-        <v>242</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
@@ -8722,7 +8696,7 @@
         <v>169</v>
       </c>
       <c r="C202">
-        <v>270</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
@@ -8730,7 +8704,7 @@
         <v>170</v>
       </c>
       <c r="C203">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
@@ -8738,7 +8712,7 @@
         <v>171</v>
       </c>
       <c r="C204">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
@@ -8746,7 +8720,7 @@
         <v>172</v>
       </c>
       <c r="C205">
-        <v>335</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
@@ -8754,7 +8728,7 @@
         <v>173</v>
       </c>
       <c r="C206">
-        <v>298</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
@@ -8762,7 +8736,7 @@
         <v>174</v>
       </c>
       <c r="C207">
-        <v>283</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
@@ -8770,7 +8744,7 @@
         <v>175</v>
       </c>
       <c r="C208">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
@@ -8778,7 +8752,7 @@
         <v>176</v>
       </c>
       <c r="C209">
-        <v>256</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
@@ -8786,7 +8760,7 @@
         <v>177</v>
       </c>
       <c r="C210">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
@@ -8794,7 +8768,7 @@
         <v>178</v>
       </c>
       <c r="C211">
-        <v>246</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
@@ -8802,7 +8776,7 @@
         <v>179</v>
       </c>
       <c r="C212">
-        <v>382</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
@@ -8810,7 +8784,7 @@
         <v>180</v>
       </c>
       <c r="C213">
-        <v>295</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
@@ -8818,7 +8792,7 @@
         <v>181</v>
       </c>
       <c r="C214">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
@@ -8826,7 +8800,7 @@
         <v>182</v>
       </c>
       <c r="C215">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
@@ -8834,7 +8808,7 @@
         <v>183</v>
       </c>
       <c r="C216">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
@@ -8842,7 +8816,7 @@
         <v>184</v>
       </c>
       <c r="C217">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
@@ -8850,7 +8824,7 @@
         <v>185</v>
       </c>
       <c r="C218">
-        <v>377</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
@@ -8858,7 +8832,7 @@
         <v>186</v>
       </c>
       <c r="C219">
-        <v>255</v>
+        <v>355</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
@@ -8866,7 +8840,7 @@
         <v>187</v>
       </c>
       <c r="C220">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
@@ -8874,7 +8848,7 @@
         <v>188</v>
       </c>
       <c r="C221">
-        <v>239</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
@@ -8882,7 +8856,7 @@
         <v>189</v>
       </c>
       <c r="C222">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
@@ -8890,7 +8864,7 @@
         <v>190</v>
       </c>
       <c r="C223">
-        <v>344</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
@@ -8898,7 +8872,7 @@
         <v>191</v>
       </c>
       <c r="C224">
-        <v>301</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
@@ -8906,7 +8880,7 @@
         <v>192</v>
       </c>
       <c r="C225">
-        <v>348</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
@@ -8914,7 +8888,7 @@
         <v>193</v>
       </c>
       <c r="C226">
-        <v>390</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
@@ -8922,7 +8896,7 @@
         <v>194</v>
       </c>
       <c r="C227">
-        <v>219</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
@@ -8930,7 +8904,7 @@
         <v>195</v>
       </c>
       <c r="C228">
-        <v>262</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
@@ -8938,7 +8912,7 @@
         <v>196</v>
       </c>
       <c r="C229">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
@@ -8946,7 +8920,7 @@
         <v>197</v>
       </c>
       <c r="C230">
-        <v>312</v>
+        <v>444</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
@@ -8954,7 +8928,7 @@
         <v>198</v>
       </c>
       <c r="C231">
-        <v>345</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
@@ -8962,7 +8936,7 @@
         <v>199</v>
       </c>
       <c r="C232">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
@@ -8970,7 +8944,7 @@
         <v>200</v>
       </c>
       <c r="C233">
-        <v>251</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
@@ -8978,7 +8952,7 @@
         <v>201</v>
       </c>
       <c r="C234">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
@@ -8986,7 +8960,7 @@
         <v>202</v>
       </c>
       <c r="C235">
-        <v>256</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
@@ -8994,7 +8968,7 @@
         <v>203</v>
       </c>
       <c r="C236">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
@@ -9002,7 +8976,7 @@
         <v>204</v>
       </c>
       <c r="C237">
-        <v>403</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
@@ -9010,7 +8984,7 @@
         <v>205</v>
       </c>
       <c r="C238">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
@@ -9018,7 +8992,7 @@
         <v>206</v>
       </c>
       <c r="C239">
-        <v>370</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
@@ -9026,7 +9000,7 @@
         <v>207</v>
       </c>
       <c r="C240">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
@@ -9034,7 +9008,7 @@
         <v>208</v>
       </c>
       <c r="C241">
-        <v>305</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
@@ -9042,7 +9016,7 @@
         <v>209</v>
       </c>
       <c r="C242">
-        <v>352</v>
+        <v>290</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
@@ -9050,7 +9024,7 @@
         <v>210</v>
       </c>
       <c r="C243">
-        <v>284</v>
+        <v>358</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
@@ -9058,7 +9032,7 @@
         <v>211</v>
       </c>
       <c r="C244">
-        <v>267</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
@@ -9066,7 +9040,7 @@
         <v>212</v>
       </c>
       <c r="C245">
-        <v>440</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
@@ -9074,7 +9048,7 @@
         <v>213</v>
       </c>
       <c r="C246">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
@@ -9082,7 +9056,7 @@
         <v>214</v>
       </c>
       <c r="C247">
-        <v>425</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
@@ -9090,7 +9064,7 @@
         <v>215</v>
       </c>
       <c r="C248">
-        <v>334</v>
+        <v>462</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
@@ -9098,7 +9072,7 @@
         <v>216</v>
       </c>
       <c r="C249">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
@@ -9106,7 +9080,7 @@
         <v>217</v>
       </c>
       <c r="C250">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
@@ -9114,7 +9088,7 @@
         <v>218</v>
       </c>
       <c r="C251">
-        <v>503</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
@@ -9122,7 +9096,7 @@
         <v>219</v>
       </c>
       <c r="C252">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
@@ -9130,7 +9104,7 @@
         <v>220</v>
       </c>
       <c r="C253">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
@@ -9138,7 +9112,7 @@
         <v>221</v>
       </c>
       <c r="C254">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
@@ -9146,7 +9120,7 @@
         <v>222</v>
       </c>
       <c r="C255">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
@@ -9154,7 +9128,7 @@
         <v>223</v>
       </c>
       <c r="C256">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
@@ -9162,7 +9136,7 @@
         <v>224</v>
       </c>
       <c r="C257">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
@@ -9170,7 +9144,7 @@
         <v>225</v>
       </c>
       <c r="C258">
-        <v>263</v>
+        <v>397</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
@@ -9178,7 +9152,7 @@
         <v>226</v>
       </c>
       <c r="C259">
-        <v>239</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
@@ -9186,7 +9160,7 @@
         <v>227</v>
       </c>
       <c r="C260">
-        <v>409</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
@@ -9194,7 +9168,7 @@
         <v>228</v>
       </c>
       <c r="C261">
-        <v>332</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
@@ -9202,7 +9176,7 @@
         <v>229</v>
       </c>
       <c r="C262">
-        <v>324</v>
+        <v>411</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
@@ -9210,7 +9184,7 @@
         <v>230</v>
       </c>
       <c r="C263">
-        <v>283</v>
+        <v>339</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
@@ -9218,7 +9192,7 @@
         <v>231</v>
       </c>
       <c r="C264">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
@@ -9226,7 +9200,7 @@
         <v>232</v>
       </c>
       <c r="C265">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
@@ -9234,7 +9208,7 @@
         <v>233</v>
       </c>
       <c r="C266">
-        <v>381</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
@@ -9242,7 +9216,7 @@
         <v>234</v>
       </c>
       <c r="C267">
-        <v>349</v>
+        <v>441</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
@@ -9250,7 +9224,7 @@
         <v>235</v>
       </c>
       <c r="C268">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
@@ -9258,7 +9232,7 @@
         <v>236</v>
       </c>
       <c r="C269">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
@@ -9266,7 +9240,7 @@
         <v>237</v>
       </c>
       <c r="C270">
-        <v>488</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
@@ -9274,7 +9248,7 @@
         <v>238</v>
       </c>
       <c r="C271">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
@@ -9282,7 +9256,7 @@
         <v>239</v>
       </c>
       <c r="C272">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
@@ -9290,7 +9264,7 @@
         <v>240</v>
       </c>
       <c r="C273">
-        <v>317</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
@@ -9298,7 +9272,7 @@
         <v>241</v>
       </c>
       <c r="C274">
-        <v>398</v>
+        <v>180</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
@@ -9306,7 +9280,7 @@
         <v>242</v>
       </c>
       <c r="C275">
-        <v>194</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
@@ -9314,7 +9288,7 @@
         <v>243</v>
       </c>
       <c r="C276">
-        <v>388</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
@@ -9322,7 +9296,7 @@
         <v>244</v>
       </c>
       <c r="C277">
-        <v>361</v>
+        <v>200</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
@@ -9330,7 +9304,7 @@
         <v>245</v>
       </c>
       <c r="C278">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
@@ -9338,7 +9312,7 @@
         <v>246</v>
       </c>
       <c r="C279">
-        <v>447</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
@@ -9346,7 +9320,7 @@
         <v>247</v>
       </c>
       <c r="C280">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
@@ -9354,7 +9328,7 @@
         <v>248</v>
       </c>
       <c r="C281">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
@@ -9362,7 +9336,7 @@
         <v>249</v>
       </c>
       <c r="C282">
-        <v>305</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
@@ -9370,7 +9344,7 @@
         <v>250</v>
       </c>
       <c r="C283">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
@@ -9378,7 +9352,7 @@
         <v>251</v>
       </c>
       <c r="C284">
-        <v>212</v>
+        <v>452</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
@@ -9386,7 +9360,7 @@
         <v>252</v>
       </c>
       <c r="C285">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
@@ -9394,7 +9368,7 @@
         <v>253</v>
       </c>
       <c r="C286">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
@@ -9402,7 +9376,7 @@
         <v>254</v>
       </c>
       <c r="C287">
-        <v>328</v>
+        <v>255</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
@@ -9410,7 +9384,7 @@
         <v>255</v>
       </c>
       <c r="C288">
-        <v>368</v>
+        <v>432</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
@@ -9418,7 +9392,7 @@
         <v>256</v>
       </c>
       <c r="C289">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
@@ -9426,7 +9400,7 @@
         <v>257</v>
       </c>
       <c r="C290">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
@@ -9434,7 +9408,7 @@
         <v>258</v>
       </c>
       <c r="C291">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
@@ -9442,7 +9416,7 @@
         <v>259</v>
       </c>
       <c r="C292">
-        <v>287</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
@@ -9450,7 +9424,7 @@
         <v>260</v>
       </c>
       <c r="C293">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
@@ -9458,7 +9432,7 @@
         <v>261</v>
       </c>
       <c r="C294">
-        <v>275</v>
+        <v>333</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
@@ -9466,7 +9440,7 @@
         <v>262</v>
       </c>
       <c r="C295">
-        <v>306</v>
+        <v>373</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
@@ -9474,7 +9448,7 @@
         <v>263</v>
       </c>
       <c r="C296">
-        <v>246</v>
+        <v>363</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
@@ -9482,7 +9456,7 @@
         <v>264</v>
       </c>
       <c r="C297">
-        <v>370</v>
+        <v>254</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
@@ -9490,7 +9464,7 @@
         <v>265</v>
       </c>
       <c r="C298">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
@@ -9498,7 +9472,7 @@
         <v>266</v>
       </c>
       <c r="C299">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
@@ -9506,7 +9480,7 @@
         <v>267</v>
       </c>
       <c r="C300">
-        <v>359</v>
+        <v>222</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
@@ -9514,7 +9488,7 @@
         <v>268</v>
       </c>
       <c r="C301">
-        <v>226</v>
+        <v>441</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
@@ -9522,7 +9496,7 @@
         <v>269</v>
       </c>
       <c r="C302">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
@@ -9530,7 +9504,7 @@
         <v>270</v>
       </c>
       <c r="C303">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
@@ -9538,7 +9512,7 @@
         <v>271</v>
       </c>
       <c r="C304">
-        <v>299</v>
+        <v>381</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
@@ -9546,7 +9520,7 @@
         <v>272</v>
       </c>
       <c r="C305">
-        <v>296</v>
+        <v>229</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
@@ -9554,7 +9528,7 @@
         <v>273</v>
       </c>
       <c r="C306">
-        <v>295</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
@@ -9562,7 +9536,7 @@
         <v>274</v>
       </c>
       <c r="C307">
-        <v>319</v>
+        <v>378</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
@@ -9570,7 +9544,7 @@
         <v>275</v>
       </c>
       <c r="C308">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
@@ -9578,7 +9552,7 @@
         <v>276</v>
       </c>
       <c r="C309">
-        <v>270</v>
+        <v>335</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
@@ -9586,7 +9560,7 @@
         <v>277</v>
       </c>
       <c r="C310">
-        <v>201</v>
+        <v>356</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
@@ -9594,7 +9568,7 @@
         <v>278</v>
       </c>
       <c r="C311">
-        <v>314</v>
+        <v>153</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
@@ -9602,7 +9576,7 @@
         <v>279</v>
       </c>
       <c r="C312">
-        <v>418</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
@@ -9610,7 +9584,7 @@
         <v>280</v>
       </c>
       <c r="C313">
-        <v>309</v>
+        <v>372</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
@@ -9618,7 +9592,7 @@
         <v>281</v>
       </c>
       <c r="C314">
-        <v>341</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
@@ -9626,7 +9600,7 @@
         <v>282</v>
       </c>
       <c r="C315">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
@@ -9634,7 +9608,7 @@
         <v>283</v>
       </c>
       <c r="C316">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
@@ -9642,7 +9616,7 @@
         <v>284</v>
       </c>
       <c r="C317">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
@@ -9650,7 +9624,7 @@
         <v>285</v>
       </c>
       <c r="C318">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
@@ -9658,7 +9632,7 @@
         <v>286</v>
       </c>
       <c r="C319">
-        <v>411</v>
+        <v>353</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
@@ -9666,7 +9640,7 @@
         <v>287</v>
       </c>
       <c r="C320">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
@@ -9674,7 +9648,7 @@
         <v>288</v>
       </c>
       <c r="C321">
-        <v>377</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
@@ -9682,7 +9656,7 @@
         <v>289</v>
       </c>
       <c r="C322">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
@@ -9690,7 +9664,7 @@
         <v>290</v>
       </c>
       <c r="C323">
-        <v>317</v>
+        <v>149</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
@@ -9698,7 +9672,7 @@
         <v>291</v>
       </c>
       <c r="C324">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
@@ -9706,7 +9680,7 @@
         <v>292</v>
       </c>
       <c r="C325">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
@@ -9714,7 +9688,7 @@
         <v>293</v>
       </c>
       <c r="C326">
-        <v>402</v>
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
@@ -9722,7 +9696,7 @@
         <v>294</v>
       </c>
       <c r="C327">
-        <v>365</v>
+        <v>281</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
@@ -9730,7 +9704,7 @@
         <v>295</v>
       </c>
       <c r="C328">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
@@ -9738,7 +9712,7 @@
         <v>296</v>
       </c>
       <c r="C329">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
@@ -9746,7 +9720,7 @@
         <v>297</v>
       </c>
       <c r="C330">
-        <v>368</v>
+        <v>262</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
@@ -9754,7 +9728,7 @@
         <v>298</v>
       </c>
       <c r="C331">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
@@ -9762,7 +9736,7 @@
         <v>299</v>
       </c>
       <c r="C332">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
@@ -9770,7 +9744,7 @@
         <v>300</v>
       </c>
       <c r="C333">
-        <v>361</v>
+        <v>321</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
@@ -9778,7 +9752,7 @@
         <v>301</v>
       </c>
       <c r="C334">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
@@ -9786,7 +9760,7 @@
         <v>302</v>
       </c>
       <c r="C335">
-        <v>350</v>
+        <v>256</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
@@ -9794,7 +9768,7 @@
         <v>303</v>
       </c>
       <c r="C336">
-        <v>211</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
@@ -9802,7 +9776,7 @@
         <v>304</v>
       </c>
       <c r="C337">
-        <v>322</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
@@ -9810,7 +9784,7 @@
         <v>305</v>
       </c>
       <c r="C338">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
@@ -9818,7 +9792,7 @@
         <v>306</v>
       </c>
       <c r="C339">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
@@ -9826,7 +9800,7 @@
         <v>307</v>
       </c>
       <c r="C340">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
@@ -9834,7 +9808,7 @@
         <v>308</v>
       </c>
       <c r="C341">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
@@ -9842,7 +9816,7 @@
         <v>309</v>
       </c>
       <c r="C342">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
@@ -9850,7 +9824,7 @@
         <v>310</v>
       </c>
       <c r="C343">
-        <v>397</v>
+        <v>331</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
@@ -9858,7 +9832,7 @@
         <v>311</v>
       </c>
       <c r="C344">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
@@ -9866,7 +9840,7 @@
         <v>312</v>
       </c>
       <c r="C345">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
@@ -9874,7 +9848,7 @@
         <v>313</v>
       </c>
       <c r="C346">
-        <v>255</v>
+        <v>384</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
@@ -9882,7 +9856,7 @@
         <v>314</v>
       </c>
       <c r="C347">
-        <v>364</v>
+        <v>270</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
@@ -9890,7 +9864,7 @@
         <v>315</v>
       </c>
       <c r="C348">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
@@ -9906,7 +9880,7 @@
         <v>317</v>
       </c>
       <c r="C350">
-        <v>311</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
@@ -9914,7 +9888,7 @@
         <v>318</v>
       </c>
       <c r="C351">
-        <v>416</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
@@ -9922,7 +9896,7 @@
         <v>319</v>
       </c>
       <c r="C352">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
@@ -9930,7 +9904,7 @@
         <v>320</v>
       </c>
       <c r="C353">
-        <v>226</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
@@ -9938,7 +9912,7 @@
         <v>321</v>
       </c>
       <c r="C354">
-        <v>470</v>
+        <v>342</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
@@ -9946,7 +9920,7 @@
         <v>322</v>
       </c>
       <c r="C355">
-        <v>188</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
@@ -9954,7 +9928,7 @@
         <v>323</v>
       </c>
       <c r="C356">
-        <v>293</v>
+        <v>400</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
@@ -9962,7 +9936,7 @@
         <v>324</v>
       </c>
       <c r="C357">
-        <v>225</v>
+        <v>305</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
@@ -9970,7 +9944,7 @@
         <v>325</v>
       </c>
       <c r="C358">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
@@ -9978,7 +9952,7 @@
         <v>326</v>
       </c>
       <c r="C359">
-        <v>219</v>
+        <v>305</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
@@ -9986,7 +9960,7 @@
         <v>327</v>
       </c>
       <c r="C360">
-        <v>296</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
@@ -9994,7 +9968,7 @@
         <v>328</v>
       </c>
       <c r="C361">
-        <v>201</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
@@ -10002,7 +9976,7 @@
         <v>329</v>
       </c>
       <c r="C362">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
@@ -10010,7 +9984,7 @@
         <v>330</v>
       </c>
       <c r="C363">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
@@ -10018,7 +9992,7 @@
         <v>331</v>
       </c>
       <c r="C364">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
@@ -10026,7 +10000,7 @@
         <v>332</v>
       </c>
       <c r="C365">
-        <v>310</v>
+        <v>260</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
@@ -10034,7 +10008,7 @@
         <v>333</v>
       </c>
       <c r="C366">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
@@ -10042,7 +10016,7 @@
         <v>334</v>
       </c>
       <c r="C367">
-        <v>223</v>
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
@@ -10050,7 +10024,7 @@
         <v>335</v>
       </c>
       <c r="C368">
-        <v>338</v>
+        <v>395</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
@@ -10058,7 +10032,7 @@
         <v>336</v>
       </c>
       <c r="C369">
-        <v>420</v>
+        <v>291</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
@@ -10066,7 +10040,7 @@
         <v>337</v>
       </c>
       <c r="C370">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
@@ -10074,7 +10048,7 @@
         <v>338</v>
       </c>
       <c r="C371">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
@@ -10082,7 +10056,7 @@
         <v>339</v>
       </c>
       <c r="C372">
-        <v>385</v>
+        <v>300</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
@@ -10090,7 +10064,7 @@
         <v>340</v>
       </c>
       <c r="C373">
-        <v>247</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
@@ -10098,7 +10072,7 @@
         <v>341</v>
       </c>
       <c r="C374">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
@@ -10106,7 +10080,7 @@
         <v>342</v>
       </c>
       <c r="C375">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
@@ -10114,7 +10088,7 @@
         <v>343</v>
       </c>
       <c r="C376">
-        <v>393</v>
+        <v>434</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
@@ -10122,7 +10096,7 @@
         <v>344</v>
       </c>
       <c r="C377">
-        <v>329</v>
+        <v>427</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
@@ -10130,7 +10104,7 @@
         <v>345</v>
       </c>
       <c r="C378">
-        <v>386</v>
+        <v>296</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
@@ -10138,7 +10112,7 @@
         <v>346</v>
       </c>
       <c r="C379">
-        <v>295</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
@@ -10146,7 +10120,7 @@
         <v>347</v>
       </c>
       <c r="C380">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
@@ -10154,7 +10128,7 @@
         <v>348</v>
       </c>
       <c r="C381">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
@@ -10162,7 +10136,7 @@
         <v>349</v>
       </c>
       <c r="C382">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
@@ -10170,7 +10144,7 @@
         <v>350</v>
       </c>
       <c r="C383">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
@@ -10178,7 +10152,7 @@
         <v>351</v>
       </c>
       <c r="C384">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
@@ -10186,7 +10160,7 @@
         <v>352</v>
       </c>
       <c r="C385">
-        <v>287</v>
+        <v>330</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
@@ -10194,7 +10168,7 @@
         <v>353</v>
       </c>
       <c r="C386">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
@@ -10202,7 +10176,7 @@
         <v>354</v>
       </c>
       <c r="C387">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
@@ -10210,7 +10184,7 @@
         <v>355</v>
       </c>
       <c r="C388">
-        <v>337</v>
+        <v>396</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
@@ -10218,7 +10192,7 @@
         <v>356</v>
       </c>
       <c r="C389">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
@@ -10226,7 +10200,7 @@
         <v>357</v>
       </c>
       <c r="C390">
-        <v>309</v>
+        <v>228</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
@@ -10234,7 +10208,7 @@
         <v>358</v>
       </c>
       <c r="C391">
-        <v>280</v>
+        <v>215</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
@@ -10242,7 +10216,7 @@
         <v>359</v>
       </c>
       <c r="C392">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
@@ -10250,7 +10224,7 @@
         <v>360</v>
       </c>
       <c r="C393">
-        <v>221</v>
+        <v>354</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
@@ -10258,7 +10232,7 @@
         <v>361</v>
       </c>
       <c r="C394">
-        <v>405</v>
+        <v>322</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
@@ -10266,7 +10240,7 @@
         <v>362</v>
       </c>
       <c r="C395">
-        <v>328</v>
+        <v>390</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
@@ -10274,7 +10248,7 @@
         <v>363</v>
       </c>
       <c r="C396">
-        <v>269</v>
+        <v>513</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
@@ -10282,7 +10256,7 @@
         <v>364</v>
       </c>
       <c r="C397">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
@@ -10290,7 +10264,7 @@
         <v>365</v>
       </c>
       <c r="C398">
-        <v>186</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
@@ -10298,7 +10272,7 @@
         <v>366</v>
       </c>
       <c r="C399">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
@@ -10306,7 +10280,7 @@
         <v>367</v>
       </c>
       <c r="C400">
-        <v>333</v>
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
@@ -10314,7 +10288,7 @@
         <v>368</v>
       </c>
       <c r="C401">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
@@ -10322,7 +10296,7 @@
         <v>369</v>
       </c>
       <c r="C402">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
@@ -10330,7 +10304,7 @@
         <v>370</v>
       </c>
       <c r="C403">
-        <v>265</v>
+        <v>360</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
@@ -10338,7 +10312,7 @@
         <v>371</v>
       </c>
       <c r="C404">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
@@ -10346,7 +10320,7 @@
         <v>372</v>
       </c>
       <c r="C405">
-        <v>225</v>
+        <v>272</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
@@ -10354,7 +10328,7 @@
         <v>373</v>
       </c>
       <c r="C406">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
@@ -10362,7 +10336,7 @@
         <v>374</v>
       </c>
       <c r="C407">
-        <v>295</v>
+        <v>249</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
@@ -10370,7 +10344,7 @@
         <v>375</v>
       </c>
       <c r="C408">
-        <v>353</v>
+        <v>275</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
@@ -10378,7 +10352,7 @@
         <v>376</v>
       </c>
       <c r="C409">
-        <v>227</v>
+        <v>368</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
@@ -10386,7 +10360,7 @@
         <v>377</v>
       </c>
       <c r="C410">
-        <v>285</v>
+        <v>431</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
@@ -10394,7 +10368,7 @@
         <v>378</v>
       </c>
       <c r="C411">
-        <v>354</v>
+        <v>224</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
@@ -10402,7 +10376,7 @@
         <v>379</v>
       </c>
       <c r="C412">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
@@ -10410,7 +10384,7 @@
         <v>380</v>
       </c>
       <c r="C413">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
@@ -10418,7 +10392,7 @@
         <v>381</v>
       </c>
       <c r="C414">
-        <v>362</v>
+        <v>217</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
@@ -10426,7 +10400,7 @@
         <v>382</v>
       </c>
       <c r="C415">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
@@ -10434,7 +10408,7 @@
         <v>383</v>
       </c>
       <c r="C416">
-        <v>432</v>
+        <v>301</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
@@ -10442,7 +10416,7 @@
         <v>384</v>
       </c>
       <c r="C417">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
@@ -10450,7 +10424,7 @@
         <v>385</v>
       </c>
       <c r="C418">
-        <v>407</v>
+        <v>336</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
@@ -10458,7 +10432,7 @@
         <v>386</v>
       </c>
       <c r="C419">
-        <v>322</v>
+        <v>221</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
@@ -10466,7 +10440,7 @@
         <v>387</v>
       </c>
       <c r="C420">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
@@ -10474,7 +10448,7 @@
         <v>388</v>
       </c>
       <c r="C421">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
@@ -10482,7 +10456,7 @@
         <v>389</v>
       </c>
       <c r="C422">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
@@ -10490,7 +10464,7 @@
         <v>390</v>
       </c>
       <c r="C423">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
@@ -10498,7 +10472,7 @@
         <v>391</v>
       </c>
       <c r="C424">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
@@ -10506,7 +10480,7 @@
         <v>392</v>
       </c>
       <c r="C425">
-        <v>303</v>
+        <v>383</v>
       </c>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
@@ -10514,7 +10488,7 @@
         <v>393</v>
       </c>
       <c r="C426">
-        <v>331</v>
+        <v>238</v>
       </c>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.2">
@@ -10522,7 +10496,7 @@
         <v>394</v>
       </c>
       <c r="C427">
-        <v>301</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
@@ -10530,7 +10504,7 @@
         <v>395</v>
       </c>
       <c r="C428">
-        <v>304</v>
+        <v>374</v>
       </c>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.2">
@@ -10538,7 +10512,7 @@
         <v>396</v>
       </c>
       <c r="C429">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.2">
@@ -10546,7 +10520,7 @@
         <v>397</v>
       </c>
       <c r="C430">
-        <v>331</v>
+        <v>253</v>
       </c>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.2">
@@ -10554,7 +10528,7 @@
         <v>398</v>
       </c>
       <c r="C431">
-        <v>246</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.2">
@@ -10562,7 +10536,7 @@
         <v>399</v>
       </c>
       <c r="C432">
-        <v>273</v>
+        <v>411</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
@@ -10570,7 +10544,7 @@
         <v>400</v>
       </c>
       <c r="C433">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.2">
@@ -10578,7 +10552,7 @@
         <v>401</v>
       </c>
       <c r="C434">
-        <v>241</v>
+        <v>312</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.2">
@@ -10586,7 +10560,7 @@
         <v>402</v>
       </c>
       <c r="C435">
-        <v>470</v>
+        <v>265</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
@@ -10594,7 +10568,7 @@
         <v>403</v>
       </c>
       <c r="C436">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
@@ -10602,7 +10576,7 @@
         <v>404</v>
       </c>
       <c r="C437">
-        <v>396</v>
+        <v>197</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.2">
@@ -10610,7 +10584,7 @@
         <v>405</v>
       </c>
       <c r="C438">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.2">
@@ -10618,7 +10592,7 @@
         <v>406</v>
       </c>
       <c r="C439">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
@@ -10626,7 +10600,7 @@
         <v>407</v>
       </c>
       <c r="C440">
-        <v>199</v>
+        <v>394</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
@@ -10634,7 +10608,7 @@
         <v>408</v>
       </c>
       <c r="C441">
-        <v>256</v>
+        <v>334</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.2">
@@ -10642,7 +10616,7 @@
         <v>409</v>
       </c>
       <c r="C442">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.2">
@@ -10650,7 +10624,7 @@
         <v>410</v>
       </c>
       <c r="C443">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
@@ -10658,7 +10632,7 @@
         <v>411</v>
       </c>
       <c r="C444">
-        <v>369</v>
+        <v>179</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
@@ -10666,7 +10640,7 @@
         <v>412</v>
       </c>
       <c r="C445">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.2">
@@ -10674,7 +10648,7 @@
         <v>413</v>
       </c>
       <c r="C446">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
@@ -10682,7 +10656,7 @@
         <v>414</v>
       </c>
       <c r="C447">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
@@ -10690,7 +10664,7 @@
         <v>415</v>
       </c>
       <c r="C448">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
@@ -10698,7 +10672,7 @@
         <v>416</v>
       </c>
       <c r="C449">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
@@ -10706,7 +10680,7 @@
         <v>417</v>
       </c>
       <c r="C450">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
@@ -10714,7 +10688,7 @@
         <v>418</v>
       </c>
       <c r="C451">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
@@ -10722,7 +10696,7 @@
         <v>419</v>
       </c>
       <c r="C452">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
@@ -10730,7 +10704,7 @@
         <v>420</v>
       </c>
       <c r="C453">
-        <v>423</v>
+        <v>350</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
@@ -10738,7 +10712,7 @@
         <v>421</v>
       </c>
       <c r="C454">
-        <v>290</v>
+        <v>426</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
@@ -10746,7 +10720,7 @@
         <v>422</v>
       </c>
       <c r="C455">
-        <v>218</v>
+        <v>360</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
@@ -10754,7 +10728,7 @@
         <v>423</v>
       </c>
       <c r="C456">
-        <v>246</v>
+        <v>341</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
@@ -10762,7 +10736,7 @@
         <v>424</v>
       </c>
       <c r="C457">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
@@ -10770,7 +10744,7 @@
         <v>425</v>
       </c>
       <c r="C458">
-        <v>372</v>
+        <v>316</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
@@ -10778,7 +10752,7 @@
         <v>426</v>
       </c>
       <c r="C459">
-        <v>388</v>
+        <v>227</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
@@ -10786,7 +10760,7 @@
         <v>427</v>
       </c>
       <c r="C460">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
@@ -10794,7 +10768,7 @@
         <v>428</v>
       </c>
       <c r="C461">
-        <v>406</v>
+        <v>341</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
@@ -10802,7 +10776,7 @@
         <v>429</v>
       </c>
       <c r="C462">
-        <v>302</v>
+        <v>405</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
@@ -10810,7 +10784,7 @@
         <v>430</v>
       </c>
       <c r="C463">
-        <v>266</v>
+        <v>382</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
@@ -10818,7 +10792,7 @@
         <v>431</v>
       </c>
       <c r="C464">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
@@ -10826,7 +10800,7 @@
         <v>432</v>
       </c>
       <c r="C465">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
@@ -10834,7 +10808,7 @@
         <v>433</v>
       </c>
       <c r="C466">
-        <v>389</v>
+        <v>318</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
@@ -10842,7 +10816,7 @@
         <v>434</v>
       </c>
       <c r="C467">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
@@ -10850,7 +10824,7 @@
         <v>435</v>
       </c>
       <c r="C468">
-        <v>403</v>
+        <v>291</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
@@ -10858,7 +10832,7 @@
         <v>436</v>
       </c>
       <c r="C469">
-        <v>219</v>
+        <v>315</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
@@ -10866,7 +10840,7 @@
         <v>437</v>
       </c>
       <c r="C470">
-        <v>302</v>
+        <v>181</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
@@ -10874,7 +10848,7 @@
         <v>438</v>
       </c>
       <c r="C471">
-        <v>245</v>
+        <v>305</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
@@ -10882,7 +10856,7 @@
         <v>439</v>
       </c>
       <c r="C472">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
@@ -10890,7 +10864,7 @@
         <v>440</v>
       </c>
       <c r="C473">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
@@ -10898,7 +10872,7 @@
         <v>441</v>
       </c>
       <c r="C474">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
@@ -10906,7 +10880,7 @@
         <v>442</v>
       </c>
       <c r="C475">
-        <v>384</v>
+        <v>322</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
@@ -10914,7 +10888,7 @@
         <v>443</v>
       </c>
       <c r="C476">
-        <v>382</v>
+        <v>269</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
@@ -10922,7 +10896,7 @@
         <v>444</v>
       </c>
       <c r="C477">
-        <v>229</v>
+        <v>277</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
@@ -10930,7 +10904,7 @@
         <v>445</v>
       </c>
       <c r="C478">
-        <v>423</v>
+        <v>337</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
@@ -10938,7 +10912,7 @@
         <v>446</v>
       </c>
       <c r="C479">
-        <v>228</v>
+        <v>368</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
@@ -10946,7 +10920,7 @@
         <v>447</v>
       </c>
       <c r="C480">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
@@ -10954,7 +10928,7 @@
         <v>448</v>
       </c>
       <c r="C481">
-        <v>270</v>
+        <v>207</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
@@ -10962,7 +10936,7 @@
         <v>449</v>
       </c>
       <c r="C482">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
@@ -10970,7 +10944,7 @@
         <v>450</v>
       </c>
       <c r="C483">
-        <v>316</v>
+        <v>272</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
@@ -10978,7 +10952,7 @@
         <v>451</v>
       </c>
       <c r="C484">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
@@ -10986,7 +10960,7 @@
         <v>452</v>
       </c>
       <c r="C485">
-        <v>411</v>
+        <v>445</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
@@ -10994,7 +10968,7 @@
         <v>453</v>
       </c>
       <c r="C486">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
@@ -11002,7 +10976,7 @@
         <v>454</v>
       </c>
       <c r="C487">
-        <v>304</v>
+        <v>354</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
@@ -11010,7 +10984,7 @@
         <v>455</v>
       </c>
       <c r="C488">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
@@ -11018,7 +10992,7 @@
         <v>456</v>
       </c>
       <c r="C489">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
@@ -11026,7 +11000,7 @@
         <v>457</v>
       </c>
       <c r="C490">
-        <v>235</v>
+        <v>419</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
@@ -11034,7 +11008,7 @@
         <v>458</v>
       </c>
       <c r="C491">
-        <v>314</v>
+        <v>370</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
@@ -11042,7 +11016,7 @@
         <v>459</v>
       </c>
       <c r="C492">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
@@ -11050,7 +11024,7 @@
         <v>460</v>
       </c>
       <c r="C493">
-        <v>405</v>
+        <v>201</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
@@ -11058,7 +11032,7 @@
         <v>461</v>
       </c>
       <c r="C494">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
@@ -11066,7 +11040,7 @@
         <v>462</v>
       </c>
       <c r="C495">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
@@ -11074,7 +11048,7 @@
         <v>463</v>
       </c>
       <c r="C496">
-        <v>299</v>
+        <v>235</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
@@ -11082,7 +11056,7 @@
         <v>464</v>
       </c>
       <c r="C497">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
@@ -11090,7 +11064,7 @@
         <v>465</v>
       </c>
       <c r="C498">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
@@ -11098,7 +11072,7 @@
         <v>466</v>
       </c>
       <c r="C499">
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
@@ -11106,7 +11080,7 @@
         <v>467</v>
       </c>
       <c r="C500">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
@@ -11114,7 +11088,7 @@
         <v>468</v>
       </c>
       <c r="C501">
-        <v>423</v>
+        <v>365</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
@@ -11122,7 +11096,7 @@
         <v>469</v>
       </c>
       <c r="C502">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
@@ -11130,7 +11104,7 @@
         <v>470</v>
       </c>
       <c r="C503">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
@@ -11138,7 +11112,7 @@
         <v>471</v>
       </c>
       <c r="C504">
-        <v>259</v>
+        <v>331</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
@@ -11146,7 +11120,7 @@
         <v>472</v>
       </c>
       <c r="C505">
-        <v>347</v>
+        <v>295</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
@@ -11154,7 +11128,7 @@
         <v>473</v>
       </c>
       <c r="C506">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
@@ -11162,7 +11136,7 @@
         <v>474</v>
       </c>
       <c r="C507">
-        <v>199</v>
+        <v>288</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
@@ -11170,7 +11144,7 @@
         <v>475</v>
       </c>
       <c r="C508">
-        <v>329</v>
+        <v>224</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.2">
@@ -11178,7 +11152,7 @@
         <v>476</v>
       </c>
       <c r="C509">
-        <v>185</v>
+        <v>394</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.2">
@@ -11186,7 +11160,7 @@
         <v>477</v>
       </c>
       <c r="C510">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.2">
@@ -11194,7 +11168,7 @@
         <v>478</v>
       </c>
       <c r="C511">
-        <v>303</v>
+        <v>431</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
@@ -11202,7 +11176,7 @@
         <v>479</v>
       </c>
       <c r="C512">
-        <v>294</v>
+        <v>361</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.2">
@@ -11210,7 +11184,7 @@
         <v>480</v>
       </c>
       <c r="C513">
-        <v>397</v>
+        <v>295</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.2">
@@ -11218,7 +11192,7 @@
         <v>481</v>
       </c>
       <c r="C514">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
@@ -11226,7 +11200,7 @@
         <v>482</v>
       </c>
       <c r="C515">
-        <v>420</v>
+        <v>170</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
@@ -11234,7 +11208,7 @@
         <v>483</v>
       </c>
       <c r="C516">
-        <v>305</v>
+        <v>392</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.2">
@@ -11242,7 +11216,7 @@
         <v>484</v>
       </c>
       <c r="C517">
-        <v>361</v>
+        <v>262</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
@@ -11250,7 +11224,7 @@
         <v>485</v>
       </c>
       <c r="C518">
-        <v>335</v>
+        <v>376</v>
       </c>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.2">
@@ -11258,7 +11232,7 @@
         <v>486</v>
       </c>
       <c r="C519">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.2">
@@ -11266,7 +11240,7 @@
         <v>487</v>
       </c>
       <c r="C520">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.2">
@@ -11274,7 +11248,7 @@
         <v>488</v>
       </c>
       <c r="C521">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
@@ -11282,7 +11256,7 @@
         <v>489</v>
       </c>
       <c r="C522">
-        <v>375</v>
+        <v>214</v>
       </c>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.2">
@@ -11290,7 +11264,7 @@
         <v>490</v>
       </c>
       <c r="C523">
-        <v>382</v>
+        <v>272</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.2">
@@ -11298,7 +11272,7 @@
         <v>491</v>
       </c>
       <c r="C524">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.2">
@@ -11306,7 +11280,7 @@
         <v>492</v>
       </c>
       <c r="C525">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.2">
@@ -11314,7 +11288,7 @@
         <v>493</v>
       </c>
       <c r="C526">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.2">
@@ -11322,7 +11296,7 @@
         <v>494</v>
       </c>
       <c r="C527">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.2">
@@ -11330,7 +11304,7 @@
         <v>495</v>
       </c>
       <c r="C528">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
@@ -11338,7 +11312,7 @@
         <v>496</v>
       </c>
       <c r="C529">
-        <v>333</v>
+        <v>372</v>
       </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.2">
@@ -11346,7 +11320,7 @@
         <v>497</v>
       </c>
       <c r="C530">
-        <v>346</v>
+        <v>295</v>
       </c>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.2">
@@ -11354,7 +11328,7 @@
         <v>498</v>
       </c>
       <c r="C531">
-        <v>186</v>
+        <v>389</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.2">
@@ -11362,7 +11336,7 @@
         <v>499</v>
       </c>
       <c r="C532">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.2">
@@ -11370,7 +11344,7 @@
         <v>500</v>
       </c>
       <c r="C533">
-        <v>328</v>
+        <v>228</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.2">
@@ -11378,7 +11352,7 @@
         <v>501</v>
       </c>
       <c r="C534">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.2">
@@ -11386,7 +11360,7 @@
         <v>502</v>
       </c>
       <c r="C535">
-        <v>447</v>
+        <v>333</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.2">
@@ -11394,7 +11368,7 @@
         <v>503</v>
       </c>
       <c r="C536">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.2">
@@ -11402,7 +11376,7 @@
         <v>504</v>
       </c>
       <c r="C537">
-        <v>284</v>
+        <v>410</v>
       </c>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.2">
@@ -11410,7 +11384,7 @@
         <v>505</v>
       </c>
       <c r="C538">
-        <v>362</v>
+        <v>260</v>
       </c>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.2">
@@ -11418,7 +11392,7 @@
         <v>506</v>
       </c>
       <c r="C539">
-        <v>278</v>
+        <v>350</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.2">
@@ -11426,7 +11400,7 @@
         <v>507</v>
       </c>
       <c r="C540">
-        <v>363</v>
+        <v>435</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.2">
@@ -11434,7 +11408,7 @@
         <v>508</v>
       </c>
       <c r="C541">
-        <v>306</v>
+        <v>252</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.2">
@@ -11442,7 +11416,7 @@
         <v>509</v>
       </c>
       <c r="C542">
-        <v>300</v>
+        <v>356</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.2">
@@ -11450,7 +11424,7 @@
         <v>510</v>
       </c>
       <c r="C543">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.2">
@@ -11458,7 +11432,7 @@
         <v>511</v>
       </c>
       <c r="C544">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.2">
@@ -11466,7 +11440,7 @@
         <v>512</v>
       </c>
       <c r="C545">
-        <v>370</v>
+        <v>273</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
@@ -11474,7 +11448,7 @@
         <v>513</v>
       </c>
       <c r="C546">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
@@ -11482,7 +11456,7 @@
         <v>514</v>
       </c>
       <c r="C547">
-        <v>338</v>
+        <v>412</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.2">
@@ -11490,7 +11464,7 @@
         <v>515</v>
       </c>
       <c r="C548">
-        <v>315</v>
+        <v>400</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
@@ -11498,7 +11472,7 @@
         <v>516</v>
       </c>
       <c r="C549">
-        <v>202</v>
+        <v>394</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.2">
@@ -11506,7 +11480,7 @@
         <v>517</v>
       </c>
       <c r="C550">
-        <v>317</v>
+        <v>236</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.2">
@@ -11514,7 +11488,7 @@
         <v>518</v>
       </c>
       <c r="C551">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.2">
@@ -11522,7 +11496,7 @@
         <v>519</v>
       </c>
       <c r="C552">
-        <v>366</v>
+        <v>237</v>
       </c>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.2">
@@ -11530,7 +11504,7 @@
         <v>520</v>
       </c>
       <c r="C553">
-        <v>318</v>
+        <v>385</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.2">
@@ -11538,7 +11512,7 @@
         <v>521</v>
       </c>
       <c r="C554">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.2">
@@ -11546,7 +11520,7 @@
         <v>522</v>
       </c>
       <c r="C555">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.2">
@@ -11554,7 +11528,7 @@
         <v>523</v>
       </c>
       <c r="C556">
-        <v>345</v>
+        <v>294</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.2">
@@ -11562,7 +11536,7 @@
         <v>524</v>
       </c>
       <c r="C557">
-        <v>458</v>
+        <v>340</v>
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
@@ -11570,7 +11544,7 @@
         <v>525</v>
       </c>
       <c r="C558">
-        <v>324</v>
+        <v>391</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
@@ -11578,7 +11552,7 @@
         <v>526</v>
       </c>
       <c r="C559">
-        <v>396</v>
+        <v>334</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
@@ -11586,7 +11560,7 @@
         <v>527</v>
       </c>
       <c r="C560">
-        <v>245</v>
+        <v>353</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.2">
@@ -11594,7 +11568,7 @@
         <v>528</v>
       </c>
       <c r="C561">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.2">
@@ -11602,7 +11576,7 @@
         <v>529</v>
       </c>
       <c r="C562">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.2">
@@ -11610,7 +11584,7 @@
         <v>530</v>
       </c>
       <c r="C563">
-        <v>256</v>
+        <v>366</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
@@ -11618,7 +11592,7 @@
         <v>531</v>
       </c>
       <c r="C564">
-        <v>242</v>
+        <v>409</v>
       </c>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.2">
@@ -11626,7 +11600,7 @@
         <v>532</v>
       </c>
       <c r="C565">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
@@ -11634,7 +11608,7 @@
         <v>533</v>
       </c>
       <c r="C566">
-        <v>475</v>
+        <v>333</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
@@ -11642,7 +11616,7 @@
         <v>534</v>
       </c>
       <c r="C567">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.2">
@@ -11650,7 +11624,7 @@
         <v>535</v>
       </c>
       <c r="C568">
-        <v>177</v>
+        <v>309</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.2">
@@ -11658,7 +11632,7 @@
         <v>536</v>
       </c>
       <c r="C569">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.2">
@@ -11666,7 +11640,7 @@
         <v>537</v>
       </c>
       <c r="C570">
-        <v>400</v>
+        <v>279</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
@@ -11674,7 +11648,7 @@
         <v>538</v>
       </c>
       <c r="C571">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.2">
@@ -11682,7 +11656,7 @@
         <v>539</v>
       </c>
       <c r="C572">
-        <v>348</v>
+        <v>179</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
@@ -11690,7 +11664,7 @@
         <v>540</v>
       </c>
       <c r="C573">
-        <v>309</v>
+        <v>244</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
@@ -11698,7 +11672,7 @@
         <v>541</v>
       </c>
       <c r="C574">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
@@ -11706,7 +11680,7 @@
         <v>542</v>
       </c>
       <c r="C575">
-        <v>346</v>
+        <v>458</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
@@ -11714,7 +11688,7 @@
         <v>543</v>
       </c>
       <c r="C576">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.2">
@@ -11722,7 +11696,7 @@
         <v>544</v>
       </c>
       <c r="C577">
-        <v>263</v>
+        <v>338</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.2">
@@ -11730,7 +11704,7 @@
         <v>545</v>
       </c>
       <c r="C578">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.2">
@@ -11738,7 +11712,7 @@
         <v>546</v>
       </c>
       <c r="C579">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
@@ -11746,7 +11720,7 @@
         <v>547</v>
       </c>
       <c r="C580">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.2">
@@ -11754,7 +11728,7 @@
         <v>548</v>
       </c>
       <c r="C581">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.2">
@@ -11762,7 +11736,7 @@
         <v>549</v>
       </c>
       <c r="C582">
-        <v>318</v>
+        <v>424</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.2">
@@ -11770,7 +11744,7 @@
         <v>550</v>
       </c>
       <c r="C583">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.2">
@@ -11778,7 +11752,7 @@
         <v>551</v>
       </c>
       <c r="C584">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
@@ -11786,7 +11760,7 @@
         <v>552</v>
       </c>
       <c r="C585">
-        <v>383</v>
+        <v>340</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.2">
@@ -11794,7 +11768,7 @@
         <v>553</v>
       </c>
       <c r="C586">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.2">
@@ -11802,7 +11776,7 @@
         <v>554</v>
       </c>
       <c r="C587">
-        <v>393</v>
+        <v>197</v>
       </c>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.2">
@@ -11810,7 +11784,7 @@
         <v>555</v>
       </c>
       <c r="C588">
-        <v>356</v>
+        <v>289</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.2">
@@ -11818,7 +11792,7 @@
         <v>556</v>
       </c>
       <c r="C589">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.2">
@@ -11826,7 +11800,7 @@
         <v>557</v>
       </c>
       <c r="C590">
-        <v>275</v>
+        <v>380</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
@@ -11834,7 +11808,7 @@
         <v>558</v>
       </c>
       <c r="C591">
-        <v>389</v>
+        <v>420</v>
       </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.2">
@@ -11842,7 +11816,7 @@
         <v>559</v>
       </c>
       <c r="C592">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.2">
@@ -11850,7 +11824,7 @@
         <v>560</v>
       </c>
       <c r="C593">
-        <v>415</v>
+        <v>225</v>
       </c>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.2">
@@ -11858,7 +11832,7 @@
         <v>561</v>
       </c>
       <c r="C594">
-        <v>281</v>
+        <v>194</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.2">
@@ -11866,7 +11840,7 @@
         <v>562</v>
       </c>
       <c r="C595">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.2">
@@ -11874,7 +11848,7 @@
         <v>563</v>
       </c>
       <c r="C596">
-        <v>392</v>
+        <v>260</v>
       </c>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.2">
@@ -11882,7 +11856,7 @@
         <v>564</v>
       </c>
       <c r="C597">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.2">
@@ -11890,7 +11864,7 @@
         <v>565</v>
       </c>
       <c r="C598">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.2">
@@ -11898,7 +11872,7 @@
         <v>566</v>
       </c>
       <c r="C599">
-        <v>226</v>
+        <v>363</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.2">
@@ -11906,7 +11880,7 @@
         <v>567</v>
       </c>
       <c r="C600">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.2">
@@ -11914,7 +11888,7 @@
         <v>568</v>
       </c>
       <c r="C601">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.2">
@@ -11922,7 +11896,7 @@
         <v>569</v>
       </c>
       <c r="C602">
-        <v>385</v>
+        <v>306</v>
       </c>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.2">
@@ -11930,7 +11904,7 @@
         <v>570</v>
       </c>
       <c r="C603">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.2">
@@ -11938,7 +11912,7 @@
         <v>571</v>
       </c>
       <c r="C604">
-        <v>389</v>
+        <v>308</v>
       </c>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.2">
@@ -11946,7 +11920,7 @@
         <v>572</v>
       </c>
       <c r="C605">
-        <v>287</v>
+        <v>393</v>
       </c>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.2">
@@ -11954,7 +11928,7 @@
         <v>573</v>
       </c>
       <c r="C606">
-        <v>341</v>
+        <v>428</v>
       </c>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.2">
@@ -11962,7 +11936,7 @@
         <v>574</v>
       </c>
       <c r="C607">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.2">
@@ -11970,7 +11944,7 @@
         <v>575</v>
       </c>
       <c r="C608">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.2">
@@ -11978,7 +11952,7 @@
         <v>576</v>
       </c>
       <c r="C609">
-        <v>398</v>
+        <v>219</v>
       </c>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.2">
@@ -11986,7 +11960,7 @@
         <v>577</v>
       </c>
       <c r="C610">
-        <v>385</v>
+        <v>314</v>
       </c>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.2">
@@ -11994,7 +11968,7 @@
         <v>578</v>
       </c>
       <c r="C611">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.2">
@@ -12002,7 +11976,7 @@
         <v>579</v>
       </c>
       <c r="C612">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="613" spans="2:3" x14ac:dyDescent="0.2">
@@ -12010,7 +11984,7 @@
         <v>580</v>
       </c>
       <c r="C613">
-        <v>246</v>
+        <v>326</v>
       </c>
     </row>
     <row r="614" spans="2:3" x14ac:dyDescent="0.2">
@@ -12018,7 +11992,7 @@
         <v>581</v>
       </c>
       <c r="C614">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="615" spans="2:3" x14ac:dyDescent="0.2">
@@ -12026,7 +12000,7 @@
         <v>582</v>
       </c>
       <c r="C615">
-        <v>245</v>
+        <v>312</v>
       </c>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.2">
@@ -12034,7 +12008,7 @@
         <v>583</v>
       </c>
       <c r="C616">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.2">
@@ -12042,7 +12016,7 @@
         <v>584</v>
       </c>
       <c r="C617">
-        <v>340</v>
+        <v>271</v>
       </c>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.2">
@@ -12050,7 +12024,7 @@
         <v>585</v>
       </c>
       <c r="C618">
-        <v>303</v>
+        <v>246</v>
       </c>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.2">
@@ -12058,7 +12032,7 @@
         <v>586</v>
       </c>
       <c r="C619">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="620" spans="2:3" x14ac:dyDescent="0.2">
@@ -12066,7 +12040,7 @@
         <v>587</v>
       </c>
       <c r="C620">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="621" spans="2:3" x14ac:dyDescent="0.2">
@@ -12074,7 +12048,7 @@
         <v>588</v>
       </c>
       <c r="C621">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="622" spans="2:3" x14ac:dyDescent="0.2">
@@ -12082,7 +12056,7 @@
         <v>589</v>
       </c>
       <c r="C622">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="623" spans="2:3" x14ac:dyDescent="0.2">
@@ -12090,7 +12064,7 @@
         <v>590</v>
       </c>
       <c r="C623">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="624" spans="2:3" x14ac:dyDescent="0.2">
@@ -12098,7 +12072,7 @@
         <v>591</v>
       </c>
       <c r="C624">
-        <v>256</v>
+        <v>314</v>
       </c>
     </row>
     <row r="625" spans="2:3" x14ac:dyDescent="0.2">
@@ -12106,7 +12080,7 @@
         <v>592</v>
       </c>
       <c r="C625">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.2">
@@ -12114,7 +12088,7 @@
         <v>593</v>
       </c>
       <c r="C626">
-        <v>229</v>
+        <v>329</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.2">
@@ -12122,7 +12096,7 @@
         <v>594</v>
       </c>
       <c r="C627">
-        <v>201</v>
+        <v>297</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.2">
@@ -12130,7 +12104,7 @@
         <v>595</v>
       </c>
       <c r="C628">
-        <v>442</v>
+        <v>301</v>
       </c>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.2">
@@ -12138,7 +12112,7 @@
         <v>596</v>
       </c>
       <c r="C629">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.2">
@@ -12146,7 +12120,7 @@
         <v>597</v>
       </c>
       <c r="C630">
-        <v>268</v>
+        <v>323</v>
       </c>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.2">
@@ -12154,7 +12128,7 @@
         <v>598</v>
       </c>
       <c r="C631">
-        <v>406</v>
+        <v>238</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.2">
@@ -12162,7 +12136,7 @@
         <v>599</v>
       </c>
       <c r="C632">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.2">
@@ -12170,7 +12144,7 @@
         <v>600</v>
       </c>
       <c r="C633">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.2">
@@ -12178,7 +12152,7 @@
         <v>601</v>
       </c>
       <c r="C634">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.2">
@@ -12186,7 +12160,7 @@
         <v>602</v>
       </c>
       <c r="C635">
-        <v>356</v>
+        <v>262</v>
       </c>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.2">
@@ -12194,7 +12168,7 @@
         <v>603</v>
       </c>
       <c r="C636">
-        <v>277</v>
+        <v>451</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.2">
@@ -12202,7 +12176,7 @@
         <v>604</v>
       </c>
       <c r="C637">
-        <v>402</v>
+        <v>301</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.2">
@@ -12210,7 +12184,7 @@
         <v>605</v>
       </c>
       <c r="C638">
-        <v>358</v>
+        <v>262</v>
       </c>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.2">
@@ -12218,7 +12192,7 @@
         <v>606</v>
       </c>
       <c r="C639">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="640" spans="2:3" x14ac:dyDescent="0.2">
@@ -12226,7 +12200,7 @@
         <v>607</v>
       </c>
       <c r="C640">
-        <v>350</v>
+        <v>183</v>
       </c>
     </row>
     <row r="641" spans="2:3" x14ac:dyDescent="0.2">
@@ -12234,7 +12208,7 @@
         <v>608</v>
       </c>
       <c r="C641">
-        <v>294</v>
+        <v>460</v>
       </c>
     </row>
     <row r="642" spans="2:3" x14ac:dyDescent="0.2">
@@ -12242,7 +12216,7 @@
         <v>609</v>
       </c>
       <c r="C642">
-        <v>433</v>
+        <v>140</v>
       </c>
     </row>
     <row r="643" spans="2:3" x14ac:dyDescent="0.2">
@@ -12250,7 +12224,7 @@
         <v>610</v>
       </c>
       <c r="C643">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="644" spans="2:3" x14ac:dyDescent="0.2">
@@ -12258,7 +12232,7 @@
         <v>611</v>
       </c>
       <c r="C644">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="645" spans="2:3" x14ac:dyDescent="0.2">
@@ -12266,7 +12240,7 @@
         <v>612</v>
       </c>
       <c r="C645">
-        <v>236</v>
+        <v>373</v>
       </c>
     </row>
     <row r="646" spans="2:3" x14ac:dyDescent="0.2">
@@ -12274,7 +12248,7 @@
         <v>613</v>
       </c>
       <c r="C646">
-        <v>323</v>
+        <v>266</v>
       </c>
     </row>
     <row r="647" spans="2:3" x14ac:dyDescent="0.2">
@@ -12282,7 +12256,7 @@
         <v>614</v>
       </c>
       <c r="C647">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="648" spans="2:3" x14ac:dyDescent="0.2">
@@ -12290,7 +12264,7 @@
         <v>615</v>
       </c>
       <c r="C648">
-        <v>419</v>
+        <v>334</v>
       </c>
     </row>
     <row r="649" spans="2:3" x14ac:dyDescent="0.2">
@@ -12298,7 +12272,7 @@
         <v>616</v>
       </c>
       <c r="C649">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="650" spans="2:3" x14ac:dyDescent="0.2">
@@ -12306,7 +12280,7 @@
         <v>617</v>
       </c>
       <c r="C650">
-        <v>321</v>
+        <v>199</v>
       </c>
     </row>
     <row r="651" spans="2:3" x14ac:dyDescent="0.2">
@@ -12314,7 +12288,7 @@
         <v>618</v>
       </c>
       <c r="C651">
-        <v>309</v>
+        <v>420</v>
       </c>
     </row>
     <row r="652" spans="2:3" x14ac:dyDescent="0.2">
@@ -12322,7 +12296,7 @@
         <v>619</v>
       </c>
       <c r="C652">
-        <v>371</v>
+        <v>258</v>
       </c>
     </row>
     <row r="653" spans="2:3" x14ac:dyDescent="0.2">
@@ -12330,7 +12304,7 @@
         <v>620</v>
       </c>
       <c r="C653">
-        <v>401</v>
+        <v>268</v>
       </c>
     </row>
     <row r="654" spans="2:3" x14ac:dyDescent="0.2">
@@ -12338,7 +12312,7 @@
         <v>621</v>
       </c>
       <c r="C654">
-        <v>334</v>
+        <v>366</v>
       </c>
     </row>
     <row r="655" spans="2:3" x14ac:dyDescent="0.2">
@@ -12346,7 +12320,7 @@
         <v>622</v>
       </c>
       <c r="C655">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="656" spans="2:3" x14ac:dyDescent="0.2">
@@ -12354,7 +12328,7 @@
         <v>623</v>
       </c>
       <c r="C656">
-        <v>294</v>
+        <v>227</v>
       </c>
     </row>
     <row r="657" spans="2:3" x14ac:dyDescent="0.2">
@@ -12362,7 +12336,7 @@
         <v>624</v>
       </c>
       <c r="C657">
-        <v>319</v>
+        <v>210</v>
       </c>
     </row>
     <row r="658" spans="2:3" x14ac:dyDescent="0.2">
@@ -12370,7 +12344,7 @@
         <v>625</v>
       </c>
       <c r="C658">
-        <v>246</v>
+        <v>345</v>
       </c>
     </row>
     <row r="659" spans="2:3" x14ac:dyDescent="0.2">
@@ -12378,7 +12352,7 @@
         <v>626</v>
       </c>
       <c r="C659">
-        <v>268</v>
+        <v>342</v>
       </c>
     </row>
     <row r="660" spans="2:3" x14ac:dyDescent="0.2">
@@ -12386,7 +12360,7 @@
         <v>627</v>
       </c>
       <c r="C660">
-        <v>320</v>
+        <v>382</v>
       </c>
     </row>
     <row r="661" spans="2:3" x14ac:dyDescent="0.2">
@@ -12394,7 +12368,7 @@
         <v>628</v>
       </c>
       <c r="C661">
-        <v>200</v>
+        <v>402</v>
       </c>
     </row>
     <row r="662" spans="2:3" x14ac:dyDescent="0.2">
@@ -12402,7 +12376,7 @@
         <v>629</v>
       </c>
       <c r="C662">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="663" spans="2:3" x14ac:dyDescent="0.2">
@@ -12410,7 +12384,7 @@
         <v>630</v>
       </c>
       <c r="C663">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="664" spans="2:3" x14ac:dyDescent="0.2">
@@ -12418,7 +12392,7 @@
         <v>631</v>
       </c>
       <c r="C664">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="665" spans="2:3" x14ac:dyDescent="0.2">
@@ -12426,7 +12400,7 @@
         <v>632</v>
       </c>
       <c r="C665">
-        <v>373</v>
+        <v>427</v>
       </c>
     </row>
     <row r="666" spans="2:3" x14ac:dyDescent="0.2">
@@ -12434,7 +12408,7 @@
         <v>633</v>
       </c>
       <c r="C666">
-        <v>316</v>
+        <v>449</v>
       </c>
     </row>
     <row r="667" spans="2:3" x14ac:dyDescent="0.2">
@@ -12442,7 +12416,7 @@
         <v>634</v>
       </c>
       <c r="C667">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="668" spans="2:3" x14ac:dyDescent="0.2">
@@ -12450,7 +12424,7 @@
         <v>635</v>
       </c>
       <c r="C668">
-        <v>313</v>
+        <v>404</v>
       </c>
     </row>
     <row r="669" spans="2:3" x14ac:dyDescent="0.2">
@@ -12458,7 +12432,7 @@
         <v>636</v>
       </c>
       <c r="C669">
-        <v>193</v>
+        <v>386</v>
       </c>
     </row>
     <row r="670" spans="2:3" x14ac:dyDescent="0.2">
@@ -12466,7 +12440,7 @@
         <v>637</v>
       </c>
       <c r="C670">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="671" spans="2:3" x14ac:dyDescent="0.2">
@@ -12474,7 +12448,7 @@
         <v>638</v>
       </c>
       <c r="C671">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="672" spans="2:3" x14ac:dyDescent="0.2">
@@ -12482,7 +12456,7 @@
         <v>639</v>
       </c>
       <c r="C672">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="673" spans="2:3" x14ac:dyDescent="0.2">
@@ -12490,7 +12464,7 @@
         <v>640</v>
       </c>
       <c r="C673">
-        <v>284</v>
+        <v>338</v>
       </c>
     </row>
     <row r="674" spans="2:3" x14ac:dyDescent="0.2">
@@ -12498,7 +12472,7 @@
         <v>641</v>
       </c>
       <c r="C674">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="675" spans="2:3" x14ac:dyDescent="0.2">
@@ -12506,7 +12480,7 @@
         <v>642</v>
       </c>
       <c r="C675">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="676" spans="2:3" x14ac:dyDescent="0.2">
@@ -12514,7 +12488,7 @@
         <v>643</v>
       </c>
       <c r="C676">
-        <v>220</v>
+        <v>345</v>
       </c>
     </row>
     <row r="677" spans="2:3" x14ac:dyDescent="0.2">
@@ -12522,7 +12496,7 @@
         <v>644</v>
       </c>
       <c r="C677">
-        <v>329</v>
+        <v>228</v>
       </c>
     </row>
     <row r="678" spans="2:3" x14ac:dyDescent="0.2">
@@ -12530,7 +12504,7 @@
         <v>645</v>
       </c>
       <c r="C678">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
     <row r="679" spans="2:3" x14ac:dyDescent="0.2">
@@ -12538,7 +12512,7 @@
         <v>646</v>
       </c>
       <c r="C679">
-        <v>275</v>
+        <v>231</v>
       </c>
     </row>
     <row r="680" spans="2:3" x14ac:dyDescent="0.2">
@@ -12546,7 +12520,7 @@
         <v>647</v>
       </c>
       <c r="C680">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="681" spans="2:3" x14ac:dyDescent="0.2">
@@ -12554,7 +12528,7 @@
         <v>648</v>
       </c>
       <c r="C681">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="682" spans="2:3" x14ac:dyDescent="0.2">
@@ -12562,7 +12536,7 @@
         <v>649</v>
       </c>
       <c r="C682">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="683" spans="2:3" x14ac:dyDescent="0.2">
@@ -12570,7 +12544,7 @@
         <v>650</v>
       </c>
       <c r="C683">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="684" spans="2:3" x14ac:dyDescent="0.2">
@@ -12578,7 +12552,7 @@
         <v>651</v>
       </c>
       <c r="C684">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="685" spans="2:3" x14ac:dyDescent="0.2">
@@ -12586,7 +12560,7 @@
         <v>652</v>
       </c>
       <c r="C685">
-        <v>371</v>
+        <v>329</v>
       </c>
     </row>
     <row r="686" spans="2:3" x14ac:dyDescent="0.2">
@@ -12594,7 +12568,7 @@
         <v>653</v>
       </c>
       <c r="C686">
-        <v>412</v>
+        <v>272</v>
       </c>
     </row>
     <row r="687" spans="2:3" x14ac:dyDescent="0.2">
@@ -12602,7 +12576,7 @@
         <v>654</v>
       </c>
       <c r="C687">
-        <v>364</v>
+        <v>438</v>
       </c>
     </row>
     <row r="688" spans="2:3" x14ac:dyDescent="0.2">
@@ -12610,7 +12584,7 @@
         <v>655</v>
       </c>
       <c r="C688">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="689" spans="2:3" x14ac:dyDescent="0.2">
@@ -12618,7 +12592,7 @@
         <v>656</v>
       </c>
       <c r="C689">
-        <v>383</v>
+        <v>286</v>
       </c>
     </row>
     <row r="690" spans="2:3" x14ac:dyDescent="0.2">
@@ -12626,7 +12600,7 @@
         <v>657</v>
       </c>
       <c r="C690">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="691" spans="2:3" x14ac:dyDescent="0.2">
@@ -12634,7 +12608,7 @@
         <v>658</v>
       </c>
       <c r="C691">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="692" spans="2:3" x14ac:dyDescent="0.2">
@@ -12642,7 +12616,7 @@
         <v>659</v>
       </c>
       <c r="C692">
-        <v>308</v>
+        <v>365</v>
       </c>
     </row>
     <row r="693" spans="2:3" x14ac:dyDescent="0.2">
@@ -12650,7 +12624,7 @@
         <v>660</v>
       </c>
       <c r="C693">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="694" spans="2:3" x14ac:dyDescent="0.2">
@@ -12658,7 +12632,7 @@
         <v>661</v>
       </c>
       <c r="C694">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="695" spans="2:3" x14ac:dyDescent="0.2">
@@ -12666,7 +12640,7 @@
         <v>662</v>
       </c>
       <c r="C695">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="696" spans="2:3" x14ac:dyDescent="0.2">
@@ -12674,7 +12648,7 @@
         <v>663</v>
       </c>
       <c r="C696">
-        <v>321</v>
+        <v>396</v>
       </c>
     </row>
     <row r="697" spans="2:3" x14ac:dyDescent="0.2">
@@ -12682,7 +12656,7 @@
         <v>664</v>
       </c>
       <c r="C697">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="698" spans="2:3" x14ac:dyDescent="0.2">
@@ -12690,7 +12664,7 @@
         <v>665</v>
       </c>
       <c r="C698">
-        <v>299</v>
+        <v>366</v>
       </c>
     </row>
     <row r="699" spans="2:3" x14ac:dyDescent="0.2">
@@ -12698,7 +12672,7 @@
         <v>666</v>
       </c>
       <c r="C699">
-        <v>259</v>
+        <v>365</v>
       </c>
     </row>
     <row r="700" spans="2:3" x14ac:dyDescent="0.2">
@@ -12706,7 +12680,7 @@
         <v>667</v>
       </c>
       <c r="C700">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="701" spans="2:3" x14ac:dyDescent="0.2">
@@ -12714,7 +12688,7 @@
         <v>668</v>
       </c>
       <c r="C701">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="702" spans="2:3" x14ac:dyDescent="0.2">
@@ -12722,7 +12696,7 @@
         <v>669</v>
       </c>
       <c r="C702">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="703" spans="2:3" x14ac:dyDescent="0.2">
@@ -12730,7 +12704,7 @@
         <v>670</v>
       </c>
       <c r="C703">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
     <row r="704" spans="2:3" x14ac:dyDescent="0.2">
@@ -12738,7 +12712,7 @@
         <v>671</v>
       </c>
       <c r="C704">
-        <v>367</v>
+        <v>408</v>
       </c>
     </row>
     <row r="705" spans="2:3" x14ac:dyDescent="0.2">
@@ -12746,7 +12720,7 @@
         <v>672</v>
       </c>
       <c r="C705">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="706" spans="2:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12728,7 @@
         <v>673</v>
       </c>
       <c r="C706">
-        <v>370</v>
+        <v>405</v>
       </c>
     </row>
     <row r="707" spans="2:3" x14ac:dyDescent="0.2">
@@ -12762,7 +12736,7 @@
         <v>674</v>
       </c>
       <c r="C707">
-        <v>396</v>
+        <v>326</v>
       </c>
     </row>
     <row r="708" spans="2:3" x14ac:dyDescent="0.2">
@@ -12770,7 +12744,7 @@
         <v>675</v>
       </c>
       <c r="C708">
-        <v>324</v>
+        <v>426</v>
       </c>
     </row>
     <row r="709" spans="2:3" x14ac:dyDescent="0.2">
@@ -12778,7 +12752,7 @@
         <v>676</v>
       </c>
       <c r="C709">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="710" spans="2:3" x14ac:dyDescent="0.2">
@@ -12786,7 +12760,7 @@
         <v>677</v>
       </c>
       <c r="C710">
-        <v>294</v>
+        <v>408</v>
       </c>
     </row>
     <row r="711" spans="2:3" x14ac:dyDescent="0.2">
@@ -12794,7 +12768,7 @@
         <v>678</v>
       </c>
       <c r="C711">
-        <v>354</v>
+        <v>240</v>
       </c>
     </row>
     <row r="712" spans="2:3" x14ac:dyDescent="0.2">
@@ -12802,7 +12776,7 @@
         <v>679</v>
       </c>
       <c r="C712">
-        <v>343</v>
+        <v>217</v>
       </c>
     </row>
     <row r="713" spans="2:3" x14ac:dyDescent="0.2">
@@ -12810,7 +12784,7 @@
         <v>680</v>
       </c>
       <c r="C713">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="714" spans="2:3" x14ac:dyDescent="0.2">
@@ -12818,7 +12792,7 @@
         <v>681</v>
       </c>
       <c r="C714">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="715" spans="2:3" x14ac:dyDescent="0.2">
@@ -12826,7 +12800,7 @@
         <v>682</v>
       </c>
       <c r="C715">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="716" spans="2:3" x14ac:dyDescent="0.2">
@@ -12834,7 +12808,7 @@
         <v>683</v>
       </c>
       <c r="C716">
-        <v>378</v>
+        <v>304</v>
       </c>
     </row>
     <row r="717" spans="2:3" x14ac:dyDescent="0.2">
@@ -12842,7 +12816,7 @@
         <v>684</v>
       </c>
       <c r="C717">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="718" spans="2:3" x14ac:dyDescent="0.2">
@@ -12850,7 +12824,7 @@
         <v>685</v>
       </c>
       <c r="C718">
-        <v>405</v>
+        <v>281</v>
       </c>
     </row>
     <row r="719" spans="2:3" x14ac:dyDescent="0.2">
@@ -12858,7 +12832,7 @@
         <v>686</v>
       </c>
       <c r="C719">
-        <v>446</v>
+        <v>327</v>
       </c>
     </row>
     <row r="720" spans="2:3" x14ac:dyDescent="0.2">
@@ -12866,7 +12840,7 @@
         <v>687</v>
       </c>
       <c r="C720">
-        <v>371</v>
+        <v>289</v>
       </c>
     </row>
     <row r="721" spans="2:3" x14ac:dyDescent="0.2">
@@ -12874,7 +12848,7 @@
         <v>688</v>
       </c>
       <c r="C721">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="722" spans="2:3" x14ac:dyDescent="0.2">
@@ -12882,7 +12856,7 @@
         <v>689</v>
       </c>
       <c r="C722">
-        <v>188</v>
+        <v>377</v>
       </c>
     </row>
     <row r="723" spans="2:3" x14ac:dyDescent="0.2">
@@ -12890,7 +12864,7 @@
         <v>690</v>
       </c>
       <c r="C723">
-        <v>365</v>
+        <v>303</v>
       </c>
     </row>
     <row r="724" spans="2:3" x14ac:dyDescent="0.2">
@@ -12898,7 +12872,7 @@
         <v>691</v>
       </c>
       <c r="C724">
-        <v>244</v>
+        <v>364</v>
       </c>
     </row>
     <row r="725" spans="2:3" x14ac:dyDescent="0.2">
@@ -12906,7 +12880,7 @@
         <v>692</v>
       </c>
       <c r="C725">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="726" spans="2:3" x14ac:dyDescent="0.2">
@@ -12914,7 +12888,7 @@
         <v>693</v>
       </c>
       <c r="C726">
-        <v>233</v>
+        <v>291</v>
       </c>
     </row>
     <row r="727" spans="2:3" x14ac:dyDescent="0.2">
@@ -12922,7 +12896,7 @@
         <v>694</v>
       </c>
       <c r="C727">
-        <v>429</v>
+        <v>317</v>
       </c>
     </row>
     <row r="728" spans="2:3" x14ac:dyDescent="0.2">
@@ -12930,7 +12904,7 @@
         <v>695</v>
       </c>
       <c r="C728">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="729" spans="2:3" x14ac:dyDescent="0.2">
@@ -12938,7 +12912,7 @@
         <v>696</v>
       </c>
       <c r="C729">
-        <v>248</v>
+        <v>294</v>
       </c>
     </row>
     <row r="730" spans="2:3" x14ac:dyDescent="0.2">
@@ -12946,7 +12920,7 @@
         <v>697</v>
       </c>
       <c r="C730">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="731" spans="2:3" x14ac:dyDescent="0.2">
@@ -12954,7 +12928,7 @@
         <v>698</v>
       </c>
       <c r="C731">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="732" spans="2:3" x14ac:dyDescent="0.2">
@@ -12962,7 +12936,7 @@
         <v>699</v>
       </c>
       <c r="C732">
-        <v>212</v>
+        <v>326</v>
       </c>
     </row>
     <row r="733" spans="2:3" x14ac:dyDescent="0.2">
@@ -12970,7 +12944,7 @@
         <v>700</v>
       </c>
       <c r="C733">
-        <v>333</v>
+        <v>259</v>
       </c>
     </row>
     <row r="734" spans="2:3" x14ac:dyDescent="0.2">
@@ -12978,7 +12952,7 @@
         <v>701</v>
       </c>
       <c r="C734">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="735" spans="2:3" x14ac:dyDescent="0.2">
@@ -12986,7 +12960,7 @@
         <v>702</v>
       </c>
       <c r="C735">
-        <v>393</v>
+        <v>316</v>
       </c>
     </row>
     <row r="736" spans="2:3" x14ac:dyDescent="0.2">
@@ -12994,7 +12968,7 @@
         <v>703</v>
       </c>
       <c r="C736">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="737" spans="2:3" x14ac:dyDescent="0.2">
@@ -13002,7 +12976,7 @@
         <v>704</v>
       </c>
       <c r="C737">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="738" spans="2:3" x14ac:dyDescent="0.2">
@@ -13010,7 +12984,7 @@
         <v>705</v>
       </c>
       <c r="C738">
-        <v>363</v>
+        <v>287</v>
       </c>
     </row>
     <row r="739" spans="2:3" x14ac:dyDescent="0.2">
@@ -13018,7 +12992,7 @@
         <v>706</v>
       </c>
       <c r="C739">
-        <v>278</v>
+        <v>237</v>
       </c>
     </row>
     <row r="740" spans="2:3" x14ac:dyDescent="0.2">
@@ -13026,7 +13000,7 @@
         <v>707</v>
       </c>
       <c r="C740">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="741" spans="2:3" x14ac:dyDescent="0.2">
@@ -13034,7 +13008,7 @@
         <v>708</v>
       </c>
       <c r="C741">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="742" spans="2:3" x14ac:dyDescent="0.2">
@@ -13042,7 +13016,7 @@
         <v>709</v>
       </c>
       <c r="C742">
-        <v>381</v>
+        <v>289</v>
       </c>
     </row>
     <row r="743" spans="2:3" x14ac:dyDescent="0.2">
@@ -13050,7 +13024,7 @@
         <v>710</v>
       </c>
       <c r="C743">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="744" spans="2:3" x14ac:dyDescent="0.2">
@@ -13058,7 +13032,7 @@
         <v>711</v>
       </c>
       <c r="C744">
-        <v>249</v>
+        <v>366</v>
       </c>
     </row>
     <row r="745" spans="2:3" x14ac:dyDescent="0.2">
@@ -13066,7 +13040,7 @@
         <v>712</v>
       </c>
       <c r="C745">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="746" spans="2:3" x14ac:dyDescent="0.2">
@@ -13074,7 +13048,7 @@
         <v>713</v>
       </c>
       <c r="C746">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="747" spans="2:3" x14ac:dyDescent="0.2">
@@ -13082,7 +13056,7 @@
         <v>714</v>
       </c>
       <c r="C747">
-        <v>309</v>
+        <v>210</v>
       </c>
     </row>
     <row r="748" spans="2:3" x14ac:dyDescent="0.2">
@@ -13090,7 +13064,7 @@
         <v>715</v>
       </c>
       <c r="C748">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="749" spans="2:3" x14ac:dyDescent="0.2">
@@ -13098,7 +13072,7 @@
         <v>716</v>
       </c>
       <c r="C749">
-        <v>411</v>
+        <v>216</v>
       </c>
     </row>
     <row r="750" spans="2:3" x14ac:dyDescent="0.2">
@@ -13106,7 +13080,7 @@
         <v>717</v>
       </c>
       <c r="C750">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="751" spans="2:3" x14ac:dyDescent="0.2">
@@ -13114,7 +13088,7 @@
         <v>718</v>
       </c>
       <c r="C751">
-        <v>296</v>
+        <v>416</v>
       </c>
     </row>
     <row r="752" spans="2:3" x14ac:dyDescent="0.2">
@@ -13122,7 +13096,7 @@
         <v>719</v>
       </c>
       <c r="C752">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="753" spans="2:3" x14ac:dyDescent="0.2">
@@ -13130,7 +13104,7 @@
         <v>720</v>
       </c>
       <c r="C753">
-        <v>319</v>
+        <v>392</v>
       </c>
     </row>
     <row r="754" spans="2:3" x14ac:dyDescent="0.2">
@@ -13138,7 +13112,7 @@
         <v>721</v>
       </c>
       <c r="C754">
-        <v>373</v>
+        <v>299</v>
       </c>
     </row>
     <row r="755" spans="2:3" x14ac:dyDescent="0.2">
@@ -13146,7 +13120,7 @@
         <v>722</v>
       </c>
       <c r="C755">
-        <v>184</v>
+        <v>358</v>
       </c>
     </row>
     <row r="756" spans="2:3" x14ac:dyDescent="0.2">
@@ -13154,7 +13128,7 @@
         <v>723</v>
       </c>
       <c r="C756">
-        <v>330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="757" spans="2:3" x14ac:dyDescent="0.2">
@@ -13162,7 +13136,7 @@
         <v>724</v>
       </c>
       <c r="C757">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="758" spans="2:3" x14ac:dyDescent="0.2">
@@ -13170,7 +13144,7 @@
         <v>725</v>
       </c>
       <c r="C758">
-        <v>298</v>
+        <v>245</v>
       </c>
     </row>
     <row r="759" spans="2:3" x14ac:dyDescent="0.2">
@@ -13178,7 +13152,7 @@
         <v>726</v>
       </c>
       <c r="C759">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="760" spans="2:3" x14ac:dyDescent="0.2">
@@ -13186,7 +13160,7 @@
         <v>727</v>
       </c>
       <c r="C760">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="761" spans="2:3" x14ac:dyDescent="0.2">
@@ -13194,7 +13168,7 @@
         <v>728</v>
       </c>
       <c r="C761">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="762" spans="2:3" x14ac:dyDescent="0.2">
@@ -13202,7 +13176,7 @@
         <v>729</v>
       </c>
       <c r="C762">
-        <v>315</v>
+        <v>403</v>
       </c>
     </row>
     <row r="763" spans="2:3" x14ac:dyDescent="0.2">
@@ -13210,7 +13184,7 @@
         <v>730</v>
       </c>
       <c r="C763">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="764" spans="2:3" x14ac:dyDescent="0.2">
@@ -13218,7 +13192,7 @@
         <v>731</v>
       </c>
       <c r="C764">
-        <v>237</v>
+        <v>343</v>
       </c>
     </row>
     <row r="765" spans="2:3" x14ac:dyDescent="0.2">
@@ -13226,7 +13200,7 @@
         <v>732</v>
       </c>
       <c r="C765">
-        <v>267</v>
+        <v>349</v>
       </c>
     </row>
     <row r="766" spans="2:3" x14ac:dyDescent="0.2">
@@ -13234,7 +13208,7 @@
         <v>733</v>
       </c>
       <c r="C766">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="767" spans="2:3" x14ac:dyDescent="0.2">
@@ -13242,7 +13216,7 @@
         <v>734</v>
       </c>
       <c r="C767">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="768" spans="2:3" x14ac:dyDescent="0.2">
@@ -13250,7 +13224,7 @@
         <v>735</v>
       </c>
       <c r="C768">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="769" spans="2:3" x14ac:dyDescent="0.2">
@@ -13258,7 +13232,7 @@
         <v>736</v>
       </c>
       <c r="C769">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="770" spans="2:3" x14ac:dyDescent="0.2">
@@ -13266,7 +13240,7 @@
         <v>737</v>
       </c>
       <c r="C770">
-        <v>464</v>
+        <v>195</v>
       </c>
     </row>
     <row r="771" spans="2:3" x14ac:dyDescent="0.2">
@@ -13274,7 +13248,7 @@
         <v>738</v>
       </c>
       <c r="C771">
-        <v>307</v>
+        <v>417</v>
       </c>
     </row>
     <row r="772" spans="2:3" x14ac:dyDescent="0.2">
@@ -13282,7 +13256,7 @@
         <v>739</v>
       </c>
       <c r="C772">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="773" spans="2:3" x14ac:dyDescent="0.2">
@@ -13290,7 +13264,7 @@
         <v>740</v>
       </c>
       <c r="C773">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="774" spans="2:3" x14ac:dyDescent="0.2">
@@ -13298,7 +13272,7 @@
         <v>741</v>
       </c>
       <c r="C774">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="775" spans="2:3" x14ac:dyDescent="0.2">
@@ -13306,7 +13280,7 @@
         <v>742</v>
       </c>
       <c r="C775">
-        <v>407</v>
+        <v>351</v>
       </c>
     </row>
     <row r="776" spans="2:3" x14ac:dyDescent="0.2">
@@ -13314,7 +13288,7 @@
         <v>743</v>
       </c>
       <c r="C776">
-        <v>464</v>
+        <v>283</v>
       </c>
     </row>
     <row r="777" spans="2:3" x14ac:dyDescent="0.2">
@@ -13322,7 +13296,7 @@
         <v>744</v>
       </c>
       <c r="C777">
-        <v>417</v>
+        <v>281</v>
       </c>
     </row>
     <row r="778" spans="2:3" x14ac:dyDescent="0.2">
@@ -13330,7 +13304,7 @@
         <v>745</v>
       </c>
       <c r="C778">
-        <v>429</v>
+        <v>295</v>
       </c>
     </row>
     <row r="779" spans="2:3" x14ac:dyDescent="0.2">
@@ -13338,7 +13312,7 @@
         <v>746</v>
       </c>
       <c r="C779">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="780" spans="2:3" x14ac:dyDescent="0.2">
@@ -13346,7 +13320,7 @@
         <v>747</v>
       </c>
       <c r="C780">
-        <v>216</v>
+        <v>253</v>
       </c>
     </row>
     <row r="781" spans="2:3" x14ac:dyDescent="0.2">
@@ -13354,7 +13328,7 @@
         <v>748</v>
       </c>
       <c r="C781">
-        <v>323</v>
+        <v>207</v>
       </c>
     </row>
     <row r="782" spans="2:3" x14ac:dyDescent="0.2">
@@ -13362,7 +13336,7 @@
         <v>749</v>
       </c>
       <c r="C782">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
     <row r="783" spans="2:3" x14ac:dyDescent="0.2">
@@ -13370,7 +13344,7 @@
         <v>750</v>
       </c>
       <c r="C783">
-        <v>289</v>
+        <v>408</v>
       </c>
     </row>
     <row r="784" spans="2:3" x14ac:dyDescent="0.2">
@@ -13378,7 +13352,7 @@
         <v>751</v>
       </c>
       <c r="C784">
-        <v>255</v>
+        <v>428</v>
       </c>
     </row>
     <row r="785" spans="2:3" x14ac:dyDescent="0.2">
@@ -13386,7 +13360,7 @@
         <v>752</v>
       </c>
       <c r="C785">
-        <v>393</v>
+        <v>289</v>
       </c>
     </row>
     <row r="786" spans="2:3" x14ac:dyDescent="0.2">
@@ -13394,7 +13368,7 @@
         <v>753</v>
       </c>
       <c r="C786">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="787" spans="2:3" x14ac:dyDescent="0.2">
@@ -13402,7 +13376,7 @@
         <v>754</v>
       </c>
       <c r="C787">
-        <v>357</v>
+        <v>266</v>
       </c>
     </row>
     <row r="788" spans="2:3" x14ac:dyDescent="0.2">
@@ -13410,7 +13384,7 @@
         <v>755</v>
       </c>
       <c r="C788">
-        <v>305</v>
+        <v>355</v>
       </c>
     </row>
     <row r="789" spans="2:3" x14ac:dyDescent="0.2">
@@ -13418,7 +13392,7 @@
         <v>756</v>
       </c>
       <c r="C789">
-        <v>285</v>
+        <v>216</v>
       </c>
     </row>
     <row r="790" spans="2:3" x14ac:dyDescent="0.2">
@@ -13426,7 +13400,7 @@
         <v>757</v>
       </c>
       <c r="C790">
-        <v>424</v>
+        <v>270</v>
       </c>
     </row>
     <row r="791" spans="2:3" x14ac:dyDescent="0.2">
@@ -13434,7 +13408,7 @@
         <v>758</v>
       </c>
       <c r="C791">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="792" spans="2:3" x14ac:dyDescent="0.2">
@@ -13442,7 +13416,7 @@
         <v>759</v>
       </c>
       <c r="C792">
-        <v>418</v>
+        <v>344</v>
       </c>
     </row>
     <row r="793" spans="2:3" x14ac:dyDescent="0.2">
@@ -13450,7 +13424,7 @@
         <v>760</v>
       </c>
       <c r="C793">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="794" spans="2:3" x14ac:dyDescent="0.2">
@@ -13458,7 +13432,7 @@
         <v>761</v>
       </c>
       <c r="C794">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="795" spans="2:3" x14ac:dyDescent="0.2">
@@ -13466,7 +13440,7 @@
         <v>762</v>
       </c>
       <c r="C795">
-        <v>196</v>
+        <v>389</v>
       </c>
     </row>
     <row r="796" spans="2:3" x14ac:dyDescent="0.2">
@@ -13474,7 +13448,7 @@
         <v>763</v>
       </c>
       <c r="C796">
-        <v>265</v>
+        <v>397</v>
       </c>
     </row>
     <row r="797" spans="2:3" x14ac:dyDescent="0.2">
@@ -13482,7 +13456,7 @@
         <v>764</v>
       </c>
       <c r="C797">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="798" spans="2:3" x14ac:dyDescent="0.2">
@@ -13490,7 +13464,7 @@
         <v>765</v>
       </c>
       <c r="C798">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="799" spans="2:3" x14ac:dyDescent="0.2">
@@ -13498,7 +13472,7 @@
         <v>766</v>
       </c>
       <c r="C799">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="800" spans="2:3" x14ac:dyDescent="0.2">
@@ -13506,7 +13480,7 @@
         <v>767</v>
       </c>
       <c r="C800">
-        <v>220</v>
+        <v>354</v>
       </c>
     </row>
     <row r="801" spans="2:3" x14ac:dyDescent="0.2">
@@ -13514,7 +13488,7 @@
         <v>768</v>
       </c>
       <c r="C801">
-        <v>389</v>
+        <v>235</v>
       </c>
     </row>
     <row r="802" spans="2:3" x14ac:dyDescent="0.2">
@@ -13522,7 +13496,7 @@
         <v>769</v>
       </c>
       <c r="C802">
-        <v>265</v>
+        <v>320</v>
       </c>
     </row>
     <row r="803" spans="2:3" x14ac:dyDescent="0.2">
@@ -13530,7 +13504,7 @@
         <v>770</v>
       </c>
       <c r="C803">
-        <v>403</v>
+        <v>210</v>
       </c>
     </row>
     <row r="804" spans="2:3" x14ac:dyDescent="0.2">
@@ -13538,7 +13512,7 @@
         <v>771</v>
       </c>
       <c r="C804">
-        <v>465</v>
+        <v>235</v>
       </c>
     </row>
     <row r="805" spans="2:3" x14ac:dyDescent="0.2">
@@ -13546,7 +13520,7 @@
         <v>772</v>
       </c>
       <c r="C805">
-        <v>463</v>
+        <v>210</v>
       </c>
     </row>
     <row r="806" spans="2:3" x14ac:dyDescent="0.2">
@@ -13554,7 +13528,7 @@
         <v>773</v>
       </c>
       <c r="C806">
-        <v>319</v>
+        <v>387</v>
       </c>
     </row>
     <row r="807" spans="2:3" x14ac:dyDescent="0.2">
@@ -13562,7 +13536,7 @@
         <v>774</v>
       </c>
       <c r="C807">
-        <v>270</v>
+        <v>369</v>
       </c>
     </row>
     <row r="808" spans="2:3" x14ac:dyDescent="0.2">
@@ -13570,7 +13544,7 @@
         <v>775</v>
       </c>
       <c r="C808">
-        <v>262</v>
+        <v>372</v>
       </c>
     </row>
     <row r="809" spans="2:3" x14ac:dyDescent="0.2">
@@ -13578,7 +13552,7 @@
         <v>776</v>
       </c>
       <c r="C809">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="810" spans="2:3" x14ac:dyDescent="0.2">
@@ -13586,7 +13560,7 @@
         <v>777</v>
       </c>
       <c r="C810">
-        <v>374</v>
+        <v>311</v>
       </c>
     </row>
     <row r="811" spans="2:3" x14ac:dyDescent="0.2">
@@ -13594,7 +13568,7 @@
         <v>778</v>
       </c>
       <c r="C811">
-        <v>312</v>
+        <v>386</v>
       </c>
     </row>
     <row r="812" spans="2:3" x14ac:dyDescent="0.2">
@@ -13602,7 +13576,7 @@
         <v>779</v>
       </c>
       <c r="C812">
-        <v>257</v>
+        <v>346</v>
       </c>
     </row>
     <row r="813" spans="2:3" x14ac:dyDescent="0.2">
@@ -13610,7 +13584,7 @@
         <v>780</v>
       </c>
       <c r="C813">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="814" spans="2:3" x14ac:dyDescent="0.2">
@@ -13618,7 +13592,7 @@
         <v>781</v>
       </c>
       <c r="C814">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="815" spans="2:3" x14ac:dyDescent="0.2">
@@ -13626,7 +13600,7 @@
         <v>782</v>
       </c>
       <c r="C815">
-        <v>226</v>
+        <v>367</v>
       </c>
     </row>
     <row r="816" spans="2:3" x14ac:dyDescent="0.2">
@@ -13634,7 +13608,7 @@
         <v>783</v>
       </c>
       <c r="C816">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="817" spans="2:3" x14ac:dyDescent="0.2">
@@ -13642,7 +13616,7 @@
         <v>784</v>
       </c>
       <c r="C817">
-        <v>320</v>
+        <v>235</v>
       </c>
     </row>
     <row r="818" spans="2:3" x14ac:dyDescent="0.2">
@@ -13650,7 +13624,7 @@
         <v>785</v>
       </c>
       <c r="C818">
-        <v>346</v>
+        <v>255</v>
       </c>
     </row>
     <row r="819" spans="2:3" x14ac:dyDescent="0.2">
@@ -13658,7 +13632,7 @@
         <v>786</v>
       </c>
       <c r="C819">
-        <v>392</v>
+        <v>323</v>
       </c>
     </row>
     <row r="820" spans="2:3" x14ac:dyDescent="0.2">
@@ -13666,7 +13640,7 @@
         <v>787</v>
       </c>
       <c r="C820">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="821" spans="2:3" x14ac:dyDescent="0.2">
@@ -13674,7 +13648,7 @@
         <v>788</v>
       </c>
       <c r="C821">
-        <v>399</v>
+        <v>313</v>
       </c>
     </row>
     <row r="822" spans="2:3" x14ac:dyDescent="0.2">
@@ -13682,7 +13656,7 @@
         <v>789</v>
       </c>
       <c r="C822">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="823" spans="2:3" x14ac:dyDescent="0.2">
@@ -13690,7 +13664,7 @@
         <v>790</v>
       </c>
       <c r="C823">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="824" spans="2:3" x14ac:dyDescent="0.2">
@@ -13698,7 +13672,7 @@
         <v>791</v>
       </c>
       <c r="C824">
-        <v>243</v>
+        <v>365</v>
       </c>
     </row>
     <row r="825" spans="2:3" x14ac:dyDescent="0.2">
@@ -13706,7 +13680,7 @@
         <v>792</v>
       </c>
       <c r="C825">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="826" spans="2:3" x14ac:dyDescent="0.2">
@@ -13714,7 +13688,7 @@
         <v>793</v>
       </c>
       <c r="C826">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="827" spans="2:3" x14ac:dyDescent="0.2">
@@ -13722,7 +13696,7 @@
         <v>794</v>
       </c>
       <c r="C827">
-        <v>367</v>
+        <v>211</v>
       </c>
     </row>
     <row r="828" spans="2:3" x14ac:dyDescent="0.2">
@@ -13730,7 +13704,7 @@
         <v>795</v>
       </c>
       <c r="C828">
-        <v>396</v>
+        <v>277</v>
       </c>
     </row>
     <row r="829" spans="2:3" x14ac:dyDescent="0.2">
@@ -13738,7 +13712,7 @@
         <v>796</v>
       </c>
       <c r="C829">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="830" spans="2:3" x14ac:dyDescent="0.2">
@@ -13746,7 +13720,7 @@
         <v>797</v>
       </c>
       <c r="C830">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="831" spans="2:3" x14ac:dyDescent="0.2">
@@ -13754,7 +13728,7 @@
         <v>798</v>
       </c>
       <c r="C831">
-        <v>246</v>
+        <v>326</v>
       </c>
     </row>
     <row r="832" spans="2:3" x14ac:dyDescent="0.2">
@@ -13762,7 +13736,7 @@
         <v>799</v>
       </c>
       <c r="C832">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="833" spans="2:3" x14ac:dyDescent="0.2">
@@ -13770,7 +13744,7 @@
         <v>800</v>
       </c>
       <c r="C833">
-        <v>278</v>
+        <v>232</v>
       </c>
     </row>
     <row r="834" spans="2:3" x14ac:dyDescent="0.2">
@@ -13778,7 +13752,7 @@
         <v>801</v>
       </c>
       <c r="C834">
-        <v>287</v>
+        <v>418</v>
       </c>
     </row>
     <row r="835" spans="2:3" x14ac:dyDescent="0.2">
@@ -13786,7 +13760,7 @@
         <v>802</v>
       </c>
       <c r="C835">
-        <v>297</v>
+        <v>188</v>
       </c>
     </row>
     <row r="836" spans="2:3" x14ac:dyDescent="0.2">
@@ -13794,7 +13768,7 @@
         <v>803</v>
       </c>
       <c r="C836">
-        <v>451</v>
+        <v>292</v>
       </c>
     </row>
     <row r="837" spans="2:3" x14ac:dyDescent="0.2">
@@ -13802,7 +13776,7 @@
         <v>804</v>
       </c>
       <c r="C837">
-        <v>380</v>
+        <v>268</v>
       </c>
     </row>
     <row r="838" spans="2:3" x14ac:dyDescent="0.2">
@@ -13810,7 +13784,7 @@
         <v>805</v>
       </c>
       <c r="C838">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="839" spans="2:3" x14ac:dyDescent="0.2">
@@ -13818,7 +13792,7 @@
         <v>806</v>
       </c>
       <c r="C839">
-        <v>224</v>
+        <v>347</v>
       </c>
     </row>
     <row r="840" spans="2:3" x14ac:dyDescent="0.2">
@@ -13826,7 +13800,7 @@
         <v>807</v>
       </c>
       <c r="C840">
-        <v>364</v>
+        <v>244</v>
       </c>
     </row>
     <row r="841" spans="2:3" x14ac:dyDescent="0.2">
@@ -13834,7 +13808,7 @@
         <v>808</v>
       </c>
       <c r="C841">
-        <v>252</v>
+        <v>313</v>
       </c>
     </row>
     <row r="842" spans="2:3" x14ac:dyDescent="0.2">
@@ -13842,7 +13816,7 @@
         <v>809</v>
       </c>
       <c r="C842">
-        <v>352</v>
+        <v>284</v>
       </c>
     </row>
     <row r="843" spans="2:3" x14ac:dyDescent="0.2">
@@ -13850,7 +13824,7 @@
         <v>810</v>
       </c>
       <c r="C843">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="844" spans="2:3" x14ac:dyDescent="0.2">
@@ -13858,7 +13832,7 @@
         <v>811</v>
       </c>
       <c r="C844">
-        <v>281</v>
+        <v>342</v>
       </c>
     </row>
     <row r="845" spans="2:3" x14ac:dyDescent="0.2">
@@ -13866,7 +13840,7 @@
         <v>812</v>
       </c>
       <c r="C845">
-        <v>272</v>
+        <v>209</v>
       </c>
     </row>
     <row r="846" spans="2:3" x14ac:dyDescent="0.2">
@@ -13874,7 +13848,7 @@
         <v>813</v>
       </c>
       <c r="C846">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="847" spans="2:3" x14ac:dyDescent="0.2">
@@ -13882,7 +13856,7 @@
         <v>814</v>
       </c>
       <c r="C847">
-        <v>270</v>
+        <v>390</v>
       </c>
     </row>
     <row r="848" spans="2:3" x14ac:dyDescent="0.2">
@@ -13890,7 +13864,7 @@
         <v>815</v>
       </c>
       <c r="C848">
-        <v>301</v>
+        <v>471</v>
       </c>
     </row>
     <row r="849" spans="2:3" x14ac:dyDescent="0.2">
@@ -13898,7 +13872,7 @@
         <v>816</v>
       </c>
       <c r="C849">
-        <v>240</v>
+        <v>418</v>
       </c>
     </row>
     <row r="850" spans="2:3" x14ac:dyDescent="0.2">
@@ -13906,7 +13880,7 @@
         <v>817</v>
       </c>
       <c r="C850">
-        <v>443</v>
+        <v>264</v>
       </c>
     </row>
     <row r="851" spans="2:3" x14ac:dyDescent="0.2">
@@ -13914,7 +13888,7 @@
         <v>818</v>
       </c>
       <c r="C851">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="852" spans="2:3" x14ac:dyDescent="0.2">
@@ -13922,7 +13896,7 @@
         <v>819</v>
       </c>
       <c r="C852">
-        <v>475</v>
+        <v>343</v>
       </c>
     </row>
     <row r="853" spans="2:3" x14ac:dyDescent="0.2">
@@ -13930,7 +13904,7 @@
         <v>820</v>
       </c>
       <c r="C853">
-        <v>227</v>
+        <v>332</v>
       </c>
     </row>
     <row r="854" spans="2:3" x14ac:dyDescent="0.2">
@@ -13938,7 +13912,7 @@
         <v>821</v>
       </c>
       <c r="C854">
-        <v>264</v>
+        <v>431</v>
       </c>
     </row>
     <row r="855" spans="2:3" x14ac:dyDescent="0.2">
@@ -13946,7 +13920,7 @@
         <v>822</v>
       </c>
       <c r="C855">
-        <v>344</v>
+        <v>247</v>
       </c>
     </row>
     <row r="856" spans="2:3" x14ac:dyDescent="0.2">
@@ -13954,7 +13928,7 @@
         <v>823</v>
       </c>
       <c r="C856">
-        <v>386</v>
+        <v>267</v>
       </c>
     </row>
     <row r="857" spans="2:3" x14ac:dyDescent="0.2">
@@ -13962,7 +13936,7 @@
         <v>824</v>
       </c>
       <c r="C857">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="858" spans="2:3" x14ac:dyDescent="0.2">
@@ -13970,7 +13944,7 @@
         <v>825</v>
       </c>
       <c r="C858">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="859" spans="2:3" x14ac:dyDescent="0.2">
@@ -13978,7 +13952,7 @@
         <v>826</v>
       </c>
       <c r="C859">
-        <v>301</v>
+        <v>231</v>
       </c>
     </row>
     <row r="860" spans="2:3" x14ac:dyDescent="0.2">
@@ -13986,7 +13960,7 @@
         <v>827</v>
       </c>
       <c r="C860">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="861" spans="2:3" x14ac:dyDescent="0.2">
@@ -13994,7 +13968,7 @@
         <v>828</v>
       </c>
       <c r="C861">
-        <v>316</v>
+        <v>189</v>
       </c>
     </row>
     <row r="862" spans="2:3" x14ac:dyDescent="0.2">
@@ -14002,7 +13976,7 @@
         <v>829</v>
       </c>
       <c r="C862">
-        <v>238</v>
+        <v>352</v>
       </c>
     </row>
     <row r="863" spans="2:3" x14ac:dyDescent="0.2">
@@ -14010,7 +13984,7 @@
         <v>830</v>
       </c>
       <c r="C863">
-        <v>397</v>
+        <v>280</v>
       </c>
     </row>
     <row r="864" spans="2:3" x14ac:dyDescent="0.2">
@@ -14018,7 +13992,7 @@
         <v>831</v>
       </c>
       <c r="C864">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="865" spans="2:3" x14ac:dyDescent="0.2">
@@ -14026,7 +14000,7 @@
         <v>832</v>
       </c>
       <c r="C865">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="866" spans="2:3" x14ac:dyDescent="0.2">
@@ -14034,7 +14008,7 @@
         <v>833</v>
       </c>
       <c r="C866">
-        <v>388</v>
+        <v>315</v>
       </c>
     </row>
     <row r="867" spans="2:3" x14ac:dyDescent="0.2">
@@ -14042,7 +14016,7 @@
         <v>834</v>
       </c>
       <c r="C867">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="868" spans="2:3" x14ac:dyDescent="0.2">
@@ -14050,7 +14024,7 @@
         <v>835</v>
       </c>
       <c r="C868">
-        <v>254</v>
+        <v>180</v>
       </c>
     </row>
     <row r="869" spans="2:3" x14ac:dyDescent="0.2">
@@ -14058,7 +14032,7 @@
         <v>836</v>
       </c>
       <c r="C869">
-        <v>295</v>
+        <v>411</v>
       </c>
     </row>
     <row r="870" spans="2:3" x14ac:dyDescent="0.2">
@@ -14066,7 +14040,7 @@
         <v>837</v>
       </c>
       <c r="C870">
-        <v>295</v>
+        <v>379</v>
       </c>
     </row>
     <row r="871" spans="2:3" x14ac:dyDescent="0.2">
@@ -14074,7 +14048,7 @@
         <v>838</v>
       </c>
       <c r="C871">
-        <v>268</v>
+        <v>400</v>
       </c>
     </row>
     <row r="872" spans="2:3" x14ac:dyDescent="0.2">
@@ -14082,7 +14056,7 @@
         <v>839</v>
       </c>
       <c r="C872">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="873" spans="2:3" x14ac:dyDescent="0.2">
@@ -14090,7 +14064,7 @@
         <v>840</v>
       </c>
       <c r="C873">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="874" spans="2:3" x14ac:dyDescent="0.2">
@@ -14098,7 +14072,7 @@
         <v>841</v>
       </c>
       <c r="C874">
-        <v>314</v>
+        <v>273</v>
       </c>
     </row>
     <row r="875" spans="2:3" x14ac:dyDescent="0.2">
@@ -14106,7 +14080,7 @@
         <v>842</v>
       </c>
       <c r="C875">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="876" spans="2:3" x14ac:dyDescent="0.2">
@@ -14114,7 +14088,7 @@
         <v>843</v>
       </c>
       <c r="C876">
-        <v>397</v>
+        <v>294</v>
       </c>
     </row>
     <row r="877" spans="2:3" x14ac:dyDescent="0.2">
@@ -14122,7 +14096,7 @@
         <v>844</v>
       </c>
       <c r="C877">
-        <v>344</v>
+        <v>235</v>
       </c>
     </row>
     <row r="878" spans="2:3" x14ac:dyDescent="0.2">
@@ -14130,7 +14104,7 @@
         <v>845</v>
       </c>
       <c r="C878">
-        <v>310</v>
+        <v>244</v>
       </c>
     </row>
     <row r="879" spans="2:3" x14ac:dyDescent="0.2">
@@ -14138,7 +14112,7 @@
         <v>846</v>
       </c>
       <c r="C879">
-        <v>318</v>
+        <v>238</v>
       </c>
     </row>
     <row r="880" spans="2:3" x14ac:dyDescent="0.2">
@@ -14146,7 +14120,7 @@
         <v>847</v>
       </c>
       <c r="C880">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="881" spans="2:3" x14ac:dyDescent="0.2">
@@ -14154,7 +14128,7 @@
         <v>848</v>
       </c>
       <c r="C881">
-        <v>330</v>
+        <v>420</v>
       </c>
     </row>
     <row r="882" spans="2:3" x14ac:dyDescent="0.2">
@@ -14162,7 +14136,7 @@
         <v>849</v>
       </c>
       <c r="C882">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="883" spans="2:3" x14ac:dyDescent="0.2">
@@ -14170,7 +14144,7 @@
         <v>850</v>
       </c>
       <c r="C883">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="884" spans="2:3" x14ac:dyDescent="0.2">
@@ -14178,7 +14152,7 @@
         <v>851</v>
       </c>
       <c r="C884">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="885" spans="2:3" x14ac:dyDescent="0.2">
@@ -14186,7 +14160,7 @@
         <v>852</v>
       </c>
       <c r="C885">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="886" spans="2:3" x14ac:dyDescent="0.2">
@@ -14194,7 +14168,7 @@
         <v>853</v>
       </c>
       <c r="C886">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="887" spans="2:3" x14ac:dyDescent="0.2">
@@ -14202,7 +14176,7 @@
         <v>854</v>
       </c>
       <c r="C887">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="888" spans="2:3" x14ac:dyDescent="0.2">
@@ -14210,7 +14184,7 @@
         <v>855</v>
       </c>
       <c r="C888">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="889" spans="2:3" x14ac:dyDescent="0.2">
@@ -14218,7 +14192,7 @@
         <v>856</v>
       </c>
       <c r="C889">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="890" spans="2:3" x14ac:dyDescent="0.2">
@@ -14226,7 +14200,7 @@
         <v>857</v>
       </c>
       <c r="C890">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="891" spans="2:3" x14ac:dyDescent="0.2">
@@ -14234,7 +14208,7 @@
         <v>858</v>
       </c>
       <c r="C891">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="892" spans="2:3" x14ac:dyDescent="0.2">
@@ -14242,7 +14216,7 @@
         <v>859</v>
       </c>
       <c r="C892">
-        <v>374</v>
+        <v>208</v>
       </c>
     </row>
     <row r="893" spans="2:3" x14ac:dyDescent="0.2">
@@ -14250,7 +14224,7 @@
         <v>860</v>
       </c>
       <c r="C893">
-        <v>235</v>
+        <v>336</v>
       </c>
     </row>
     <row r="894" spans="2:3" x14ac:dyDescent="0.2">
@@ -14258,7 +14232,7 @@
         <v>861</v>
       </c>
       <c r="C894">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="895" spans="2:3" x14ac:dyDescent="0.2">
@@ -14266,7 +14240,7 @@
         <v>862</v>
       </c>
       <c r="C895">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="896" spans="2:3" x14ac:dyDescent="0.2">
@@ -14274,7 +14248,7 @@
         <v>863</v>
       </c>
       <c r="C896">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="897" spans="2:3" x14ac:dyDescent="0.2">
@@ -14282,7 +14256,7 @@
         <v>864</v>
       </c>
       <c r="C897">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="898" spans="2:3" x14ac:dyDescent="0.2">
@@ -14290,7 +14264,7 @@
         <v>865</v>
       </c>
       <c r="C898">
-        <v>347</v>
+        <v>279</v>
       </c>
     </row>
     <row r="899" spans="2:3" x14ac:dyDescent="0.2">
@@ -14298,7 +14272,7 @@
         <v>866</v>
       </c>
       <c r="C899">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="900" spans="2:3" x14ac:dyDescent="0.2">
@@ -14306,7 +14280,7 @@
         <v>867</v>
       </c>
       <c r="C900">
-        <v>315</v>
+        <v>249</v>
       </c>
     </row>
     <row r="901" spans="2:3" x14ac:dyDescent="0.2">
@@ -14314,7 +14288,7 @@
         <v>868</v>
       </c>
       <c r="C901">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="902" spans="2:3" x14ac:dyDescent="0.2">
@@ -14322,7 +14296,7 @@
         <v>869</v>
       </c>
       <c r="C902">
-        <v>253</v>
+        <v>322</v>
       </c>
     </row>
     <row r="903" spans="2:3" x14ac:dyDescent="0.2">
@@ -14330,7 +14304,7 @@
         <v>870</v>
       </c>
       <c r="C903">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
     <row r="904" spans="2:3" x14ac:dyDescent="0.2">
@@ -14338,7 +14312,7 @@
         <v>871</v>
       </c>
       <c r="C904">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="905" spans="2:3" x14ac:dyDescent="0.2">
@@ -14346,7 +14320,7 @@
         <v>872</v>
       </c>
       <c r="C905">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="906" spans="2:3" x14ac:dyDescent="0.2">
@@ -14354,7 +14328,7 @@
         <v>873</v>
       </c>
       <c r="C906">
-        <v>360</v>
+        <v>259</v>
       </c>
     </row>
     <row r="907" spans="2:3" x14ac:dyDescent="0.2">
@@ -14362,7 +14336,7 @@
         <v>874</v>
       </c>
       <c r="C907">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="908" spans="2:3" x14ac:dyDescent="0.2">
@@ -14370,7 +14344,7 @@
         <v>875</v>
       </c>
       <c r="C908">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="909" spans="2:3" x14ac:dyDescent="0.2">
@@ -14378,7 +14352,7 @@
         <v>876</v>
       </c>
       <c r="C909">
-        <v>263</v>
+        <v>221</v>
       </c>
     </row>
     <row r="910" spans="2:3" x14ac:dyDescent="0.2">
@@ -14386,7 +14360,7 @@
         <v>877</v>
       </c>
       <c r="C910">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="911" spans="2:3" x14ac:dyDescent="0.2">
@@ -14394,7 +14368,7 @@
         <v>878</v>
       </c>
       <c r="C911">
-        <v>385</v>
+        <v>220</v>
       </c>
     </row>
     <row r="912" spans="2:3" x14ac:dyDescent="0.2">
@@ -14402,7 +14376,7 @@
         <v>879</v>
       </c>
       <c r="C912">
-        <v>346</v>
+        <v>264</v>
       </c>
     </row>
     <row r="913" spans="2:3" x14ac:dyDescent="0.2">
@@ -14410,7 +14384,7 @@
         <v>880</v>
       </c>
       <c r="C913">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="914" spans="2:3" x14ac:dyDescent="0.2">
@@ -14418,7 +14392,7 @@
         <v>881</v>
       </c>
       <c r="C914">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="915" spans="2:3" x14ac:dyDescent="0.2">
@@ -14426,7 +14400,7 @@
         <v>882</v>
       </c>
       <c r="C915">
-        <v>309</v>
+        <v>400</v>
       </c>
     </row>
     <row r="916" spans="2:3" x14ac:dyDescent="0.2">
@@ -14434,7 +14408,7 @@
         <v>883</v>
       </c>
       <c r="C916">
-        <v>236</v>
+        <v>300</v>
       </c>
     </row>
     <row r="917" spans="2:3" x14ac:dyDescent="0.2">
@@ -14442,7 +14416,7 @@
         <v>884</v>
       </c>
       <c r="C917">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="918" spans="2:3" x14ac:dyDescent="0.2">
@@ -14450,7 +14424,7 @@
         <v>885</v>
       </c>
       <c r="C918">
-        <v>292</v>
+        <v>445</v>
       </c>
     </row>
     <row r="919" spans="2:3" x14ac:dyDescent="0.2">
@@ -14458,7 +14432,7 @@
         <v>886</v>
       </c>
       <c r="C919">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="920" spans="2:3" x14ac:dyDescent="0.2">
@@ -14466,7 +14440,7 @@
         <v>887</v>
       </c>
       <c r="C920">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="921" spans="2:3" x14ac:dyDescent="0.2">
@@ -14474,7 +14448,7 @@
         <v>888</v>
       </c>
       <c r="C921">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="922" spans="2:3" x14ac:dyDescent="0.2">
@@ -14482,7 +14456,7 @@
         <v>889</v>
       </c>
       <c r="C922">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="923" spans="2:3" x14ac:dyDescent="0.2">
@@ -14490,7 +14464,7 @@
         <v>890</v>
       </c>
       <c r="C923">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="924" spans="2:3" x14ac:dyDescent="0.2">
@@ -14498,7 +14472,7 @@
         <v>891</v>
       </c>
       <c r="C924">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="925" spans="2:3" x14ac:dyDescent="0.2">
@@ -14506,7 +14480,7 @@
         <v>892</v>
       </c>
       <c r="C925">
-        <v>375</v>
+        <v>251</v>
       </c>
     </row>
     <row r="926" spans="2:3" x14ac:dyDescent="0.2">
@@ -14514,7 +14488,7 @@
         <v>893</v>
       </c>
       <c r="C926">
-        <v>356</v>
+        <v>292</v>
       </c>
     </row>
     <row r="927" spans="2:3" x14ac:dyDescent="0.2">
@@ -14522,7 +14496,7 @@
         <v>894</v>
       </c>
       <c r="C927">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="928" spans="2:3" x14ac:dyDescent="0.2">
@@ -14530,7 +14504,7 @@
         <v>895</v>
       </c>
       <c r="C928">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="929" spans="2:3" x14ac:dyDescent="0.2">
@@ -14538,7 +14512,7 @@
         <v>896</v>
       </c>
       <c r="C929">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="930" spans="2:3" x14ac:dyDescent="0.2">
@@ -14546,7 +14520,7 @@
         <v>897</v>
       </c>
       <c r="C930">
-        <v>262</v>
+        <v>211</v>
       </c>
     </row>
     <row r="931" spans="2:3" x14ac:dyDescent="0.2">
@@ -14554,7 +14528,7 @@
         <v>898</v>
       </c>
       <c r="C931">
-        <v>296</v>
+        <v>412</v>
       </c>
     </row>
     <row r="932" spans="2:3" x14ac:dyDescent="0.2">
@@ -14562,7 +14536,7 @@
         <v>899</v>
       </c>
       <c r="C932">
-        <v>316</v>
+        <v>399</v>
       </c>
     </row>
     <row r="933" spans="2:3" x14ac:dyDescent="0.2">
@@ -14570,7 +14544,7 @@
         <v>900</v>
       </c>
       <c r="C933">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="934" spans="2:3" x14ac:dyDescent="0.2">
@@ -14578,7 +14552,7 @@
         <v>901</v>
       </c>
       <c r="C934">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="935" spans="2:3" x14ac:dyDescent="0.2">
@@ -14586,7 +14560,7 @@
         <v>902</v>
       </c>
       <c r="C935">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="936" spans="2:3" x14ac:dyDescent="0.2">
@@ -14594,7 +14568,7 @@
         <v>903</v>
       </c>
       <c r="C936">
-        <v>261</v>
+        <v>380</v>
       </c>
     </row>
     <row r="937" spans="2:3" x14ac:dyDescent="0.2">
@@ -14602,7 +14576,7 @@
         <v>904</v>
       </c>
       <c r="C937">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="938" spans="2:3" x14ac:dyDescent="0.2">
@@ -14610,7 +14584,7 @@
         <v>905</v>
       </c>
       <c r="C938">
-        <v>237</v>
+        <v>355</v>
       </c>
     </row>
     <row r="939" spans="2:3" x14ac:dyDescent="0.2">
@@ -14618,7 +14592,7 @@
         <v>906</v>
       </c>
       <c r="C939">
-        <v>338</v>
+        <v>458</v>
       </c>
     </row>
     <row r="940" spans="2:3" x14ac:dyDescent="0.2">
@@ -14626,7 +14600,7 @@
         <v>907</v>
       </c>
       <c r="C940">
-        <v>319</v>
+        <v>399</v>
       </c>
     </row>
     <row r="941" spans="2:3" x14ac:dyDescent="0.2">
@@ -14634,7 +14608,7 @@
         <v>908</v>
       </c>
       <c r="C941">
-        <v>310</v>
+        <v>405</v>
       </c>
     </row>
     <row r="942" spans="2:3" x14ac:dyDescent="0.2">
@@ -14642,7 +14616,7 @@
         <v>909</v>
       </c>
       <c r="C942">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="943" spans="2:3" x14ac:dyDescent="0.2">
@@ -14650,7 +14624,7 @@
         <v>910</v>
       </c>
       <c r="C943">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="944" spans="2:3" x14ac:dyDescent="0.2">
@@ -14658,7 +14632,7 @@
         <v>911</v>
       </c>
       <c r="C944">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="945" spans="2:3" x14ac:dyDescent="0.2">
@@ -14666,7 +14640,7 @@
         <v>912</v>
       </c>
       <c r="C945">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="946" spans="2:3" x14ac:dyDescent="0.2">
@@ -14674,7 +14648,7 @@
         <v>913</v>
       </c>
       <c r="C946">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="947" spans="2:3" x14ac:dyDescent="0.2">
@@ -14682,7 +14656,7 @@
         <v>914</v>
       </c>
       <c r="C947">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="948" spans="2:3" x14ac:dyDescent="0.2">
@@ -14690,7 +14664,7 @@
         <v>915</v>
       </c>
       <c r="C948">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="949" spans="2:3" x14ac:dyDescent="0.2">
@@ -14698,7 +14672,7 @@
         <v>916</v>
       </c>
       <c r="C949">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="950" spans="2:3" x14ac:dyDescent="0.2">
@@ -14706,7 +14680,7 @@
         <v>917</v>
       </c>
       <c r="C950">
-        <v>381</v>
+        <v>245</v>
       </c>
     </row>
     <row r="951" spans="2:3" x14ac:dyDescent="0.2">
@@ -14714,7 +14688,7 @@
         <v>918</v>
       </c>
       <c r="C951">
-        <v>412</v>
+        <v>279</v>
       </c>
     </row>
     <row r="952" spans="2:3" x14ac:dyDescent="0.2">
@@ -14722,7 +14696,7 @@
         <v>919</v>
       </c>
       <c r="C952">
-        <v>236</v>
+        <v>318</v>
       </c>
     </row>
     <row r="953" spans="2:3" x14ac:dyDescent="0.2">
@@ -14730,7 +14704,7 @@
         <v>920</v>
       </c>
       <c r="C953">
-        <v>377</v>
+        <v>268</v>
       </c>
     </row>
     <row r="954" spans="2:3" x14ac:dyDescent="0.2">
@@ -14738,7 +14712,7 @@
         <v>921</v>
       </c>
       <c r="C954">
-        <v>478</v>
+        <v>290</v>
       </c>
     </row>
     <row r="955" spans="2:3" x14ac:dyDescent="0.2">
@@ -14746,7 +14720,7 @@
         <v>922</v>
       </c>
       <c r="C955">
-        <v>259</v>
+        <v>402</v>
       </c>
     </row>
     <row r="956" spans="2:3" x14ac:dyDescent="0.2">
@@ -14754,7 +14728,7 @@
         <v>923</v>
       </c>
       <c r="C956">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="957" spans="2:3" x14ac:dyDescent="0.2">
@@ -14762,7 +14736,7 @@
         <v>924</v>
       </c>
       <c r="C957">
-        <v>367</v>
+        <v>257</v>
       </c>
     </row>
     <row r="958" spans="2:3" x14ac:dyDescent="0.2">
@@ -14770,7 +14744,7 @@
         <v>925</v>
       </c>
       <c r="C958">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="959" spans="2:3" x14ac:dyDescent="0.2">
@@ -14778,7 +14752,7 @@
         <v>926</v>
       </c>
       <c r="C959">
-        <v>351</v>
+        <v>214</v>
       </c>
     </row>
     <row r="960" spans="2:3" x14ac:dyDescent="0.2">
@@ -14786,7 +14760,7 @@
         <v>927</v>
       </c>
       <c r="C960">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="961" spans="2:3" x14ac:dyDescent="0.2">
@@ -14794,7 +14768,7 @@
         <v>928</v>
       </c>
       <c r="C961">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="962" spans="2:3" x14ac:dyDescent="0.2">
@@ -14802,7 +14776,7 @@
         <v>929</v>
       </c>
       <c r="C962">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="963" spans="2:3" x14ac:dyDescent="0.2">
@@ -14810,7 +14784,7 @@
         <v>930</v>
       </c>
       <c r="C963">
-        <v>202</v>
+        <v>300</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.2">
@@ -14818,7 +14792,7 @@
         <v>931</v>
       </c>
       <c r="C964">
-        <v>355</v>
+        <v>318</v>
       </c>
     </row>
     <row r="965" spans="2:3" x14ac:dyDescent="0.2">
@@ -14826,7 +14800,7 @@
         <v>932</v>
       </c>
       <c r="C965">
-        <v>192</v>
+        <v>238</v>
       </c>
     </row>
     <row r="966" spans="2:3" x14ac:dyDescent="0.2">
@@ -14834,7 +14808,7 @@
         <v>933</v>
       </c>
       <c r="C966">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="967" spans="2:3" x14ac:dyDescent="0.2">
@@ -14842,7 +14816,7 @@
         <v>934</v>
       </c>
       <c r="C967">
-        <v>325</v>
+        <v>238</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.2">
@@ -14850,7 +14824,7 @@
         <v>935</v>
       </c>
       <c r="C968">
-        <v>267</v>
+        <v>352</v>
       </c>
     </row>
     <row r="969" spans="2:3" x14ac:dyDescent="0.2">
@@ -14858,7 +14832,7 @@
         <v>936</v>
       </c>
       <c r="C969">
-        <v>260</v>
+        <v>371</v>
       </c>
     </row>
     <row r="970" spans="2:3" x14ac:dyDescent="0.2">
@@ -14866,7 +14840,7 @@
         <v>937</v>
       </c>
       <c r="C970">
-        <v>271</v>
+        <v>344</v>
       </c>
     </row>
     <row r="971" spans="2:3" x14ac:dyDescent="0.2">
@@ -14874,7 +14848,7 @@
         <v>938</v>
       </c>
       <c r="C971">
-        <v>183</v>
+        <v>262</v>
       </c>
     </row>
     <row r="972" spans="2:3" x14ac:dyDescent="0.2">
@@ -14882,7 +14856,7 @@
         <v>939</v>
       </c>
       <c r="C972">
-        <v>384</v>
+        <v>298</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.2">
@@ -14890,7 +14864,7 @@
         <v>940</v>
       </c>
       <c r="C973">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="974" spans="2:3" x14ac:dyDescent="0.2">
@@ -14898,7 +14872,7 @@
         <v>941</v>
       </c>
       <c r="C974">
-        <v>388</v>
+        <v>215</v>
       </c>
     </row>
     <row r="975" spans="2:3" x14ac:dyDescent="0.2">
@@ -14906,7 +14880,7 @@
         <v>942</v>
       </c>
       <c r="C975">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.2">
@@ -14914,7 +14888,7 @@
         <v>943</v>
       </c>
       <c r="C976">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="977" spans="2:3" x14ac:dyDescent="0.2">
@@ -14922,7 +14896,7 @@
         <v>944</v>
       </c>
       <c r="C977">
-        <v>317</v>
+        <v>263</v>
       </c>
     </row>
     <row r="978" spans="2:3" x14ac:dyDescent="0.2">
@@ -14930,7 +14904,7 @@
         <v>945</v>
       </c>
       <c r="C978">
-        <v>235</v>
+        <v>411</v>
       </c>
     </row>
     <row r="979" spans="2:3" x14ac:dyDescent="0.2">
@@ -14938,7 +14912,7 @@
         <v>946</v>
       </c>
       <c r="C979">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="980" spans="2:3" x14ac:dyDescent="0.2">
@@ -14946,7 +14920,7 @@
         <v>947</v>
       </c>
       <c r="C980">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="981" spans="2:3" x14ac:dyDescent="0.2">
@@ -14954,7 +14928,7 @@
         <v>948</v>
       </c>
       <c r="C981">
-        <v>333</v>
+        <v>216</v>
       </c>
     </row>
     <row r="982" spans="2:3" x14ac:dyDescent="0.2">
@@ -14962,7 +14936,7 @@
         <v>949</v>
       </c>
       <c r="C982">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="983" spans="2:3" x14ac:dyDescent="0.2">
@@ -14970,7 +14944,7 @@
         <v>950</v>
       </c>
       <c r="C983">
-        <v>312</v>
+        <v>398</v>
       </c>
     </row>
     <row r="984" spans="2:3" x14ac:dyDescent="0.2">
@@ -14978,7 +14952,7 @@
         <v>951</v>
       </c>
       <c r="C984">
-        <v>304</v>
+        <v>384</v>
       </c>
     </row>
     <row r="985" spans="2:3" x14ac:dyDescent="0.2">
@@ -14986,7 +14960,7 @@
         <v>952</v>
       </c>
       <c r="C985">
-        <v>158</v>
+        <v>253</v>
       </c>
     </row>
     <row r="986" spans="2:3" x14ac:dyDescent="0.2">
@@ -14994,7 +14968,7 @@
         <v>953</v>
       </c>
       <c r="C986">
-        <v>430</v>
+        <v>267</v>
       </c>
     </row>
     <row r="987" spans="2:3" x14ac:dyDescent="0.2">
@@ -15002,7 +14976,7 @@
         <v>954</v>
       </c>
       <c r="C987">
-        <v>340</v>
+        <v>271</v>
       </c>
     </row>
     <row r="988" spans="2:3" x14ac:dyDescent="0.2">
@@ -15010,7 +14984,7 @@
         <v>955</v>
       </c>
       <c r="C988">
-        <v>267</v>
+        <v>349</v>
       </c>
     </row>
     <row r="989" spans="2:3" x14ac:dyDescent="0.2">
@@ -15018,7 +14992,7 @@
         <v>956</v>
       </c>
       <c r="C989">
-        <v>383</v>
+        <v>327</v>
       </c>
     </row>
     <row r="990" spans="2:3" x14ac:dyDescent="0.2">
@@ -15026,7 +15000,7 @@
         <v>957</v>
       </c>
       <c r="C990">
-        <v>431</v>
+        <v>315</v>
       </c>
     </row>
     <row r="991" spans="2:3" x14ac:dyDescent="0.2">
@@ -15034,7 +15008,7 @@
         <v>958</v>
       </c>
       <c r="C991">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="992" spans="2:3" x14ac:dyDescent="0.2">
@@ -15042,7 +15016,7 @@
         <v>959</v>
       </c>
       <c r="C992">
-        <v>388</v>
+        <v>264</v>
       </c>
     </row>
     <row r="993" spans="2:3" x14ac:dyDescent="0.2">
@@ -15050,7 +15024,7 @@
         <v>960</v>
       </c>
       <c r="C993">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="994" spans="2:3" x14ac:dyDescent="0.2">
@@ -15058,7 +15032,7 @@
         <v>961</v>
       </c>
       <c r="C994">
-        <v>428</v>
+        <v>317</v>
       </c>
     </row>
     <row r="995" spans="2:3" x14ac:dyDescent="0.2">
@@ -15066,7 +15040,7 @@
         <v>962</v>
       </c>
       <c r="C995">
-        <v>408</v>
+        <v>307</v>
       </c>
     </row>
     <row r="996" spans="2:3" x14ac:dyDescent="0.2">
@@ -15074,7 +15048,7 @@
         <v>963</v>
       </c>
       <c r="C996">
-        <v>303</v>
+        <v>247</v>
       </c>
     </row>
     <row r="997" spans="2:3" x14ac:dyDescent="0.2">
@@ -15082,7 +15056,7 @@
         <v>964</v>
       </c>
       <c r="C997">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="998" spans="2:3" x14ac:dyDescent="0.2">
@@ -15090,7 +15064,7 @@
         <v>965</v>
       </c>
       <c r="C998">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="999" spans="2:3" x14ac:dyDescent="0.2">
@@ -15098,7 +15072,7 @@
         <v>966</v>
       </c>
       <c r="C999">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1000" spans="2:3" x14ac:dyDescent="0.2">
@@ -15106,7 +15080,7 @@
         <v>967</v>
       </c>
       <c r="C1000">
-        <v>365</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1001" spans="2:3" x14ac:dyDescent="0.2">
@@ -15114,7 +15088,7 @@
         <v>968</v>
       </c>
       <c r="C1001">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1002" spans="2:3" x14ac:dyDescent="0.2">
@@ -15122,7 +15096,7 @@
         <v>969</v>
       </c>
       <c r="C1002">
-        <v>371</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1003" spans="2:3" x14ac:dyDescent="0.2">
@@ -15130,7 +15104,7 @@
         <v>970</v>
       </c>
       <c r="C1003">
-        <v>221</v>
+        <v>349</v>
       </c>
     </row>
     <row r="1004" spans="2:3" x14ac:dyDescent="0.2">
@@ -15138,7 +15112,7 @@
         <v>971</v>
       </c>
       <c r="C1004">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1005" spans="2:3" x14ac:dyDescent="0.2">
@@ -15146,7 +15120,7 @@
         <v>972</v>
       </c>
       <c r="C1005">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1006" spans="2:3" x14ac:dyDescent="0.2">
@@ -15154,7 +15128,7 @@
         <v>973</v>
       </c>
       <c r="C1006">
-        <v>297</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1007" spans="2:3" x14ac:dyDescent="0.2">
@@ -15162,7 +15136,7 @@
         <v>974</v>
       </c>
       <c r="C1007">
-        <v>339</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1008" spans="2:3" x14ac:dyDescent="0.2">
@@ -15170,7 +15144,7 @@
         <v>975</v>
       </c>
       <c r="C1008">
-        <v>378</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1009" spans="2:3" x14ac:dyDescent="0.2">
@@ -15178,7 +15152,7 @@
         <v>976</v>
       </c>
       <c r="C1009">
-        <v>322</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1010" spans="2:3" x14ac:dyDescent="0.2">
@@ -15186,7 +15160,7 @@
         <v>977</v>
       </c>
       <c r="C1010">
-        <v>356</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1011" spans="2:3" x14ac:dyDescent="0.2">
@@ -15194,7 +15168,7 @@
         <v>978</v>
       </c>
       <c r="C1011">
-        <v>227</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1012" spans="2:3" x14ac:dyDescent="0.2">
@@ -15202,7 +15176,7 @@
         <v>979</v>
       </c>
       <c r="C1012">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="1013" spans="2:3" x14ac:dyDescent="0.2">
@@ -15210,7 +15184,7 @@
         <v>980</v>
       </c>
       <c r="C1013">
-        <v>316</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1014" spans="2:3" x14ac:dyDescent="0.2">
@@ -15218,7 +15192,7 @@
         <v>981</v>
       </c>
       <c r="C1014">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1015" spans="2:3" x14ac:dyDescent="0.2">
@@ -15226,7 +15200,7 @@
         <v>982</v>
       </c>
       <c r="C1015">
-        <v>341</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1016" spans="2:3" x14ac:dyDescent="0.2">
@@ -15234,7 +15208,7 @@
         <v>983</v>
       </c>
       <c r="C1016">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1017" spans="2:3" x14ac:dyDescent="0.2">
@@ -15242,7 +15216,7 @@
         <v>984</v>
       </c>
       <c r="C1017">
-        <v>218</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1018" spans="2:3" x14ac:dyDescent="0.2">
@@ -15250,7 +15224,7 @@
         <v>985</v>
       </c>
       <c r="C1018">
-        <v>252</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1019" spans="2:3" x14ac:dyDescent="0.2">
@@ -15258,7 +15232,7 @@
         <v>986</v>
       </c>
       <c r="C1019">
-        <v>391</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1020" spans="2:3" x14ac:dyDescent="0.2">
@@ -15266,7 +15240,7 @@
         <v>987</v>
       </c>
       <c r="C1020">
-        <v>272</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1021" spans="2:3" x14ac:dyDescent="0.2">
@@ -15274,7 +15248,7 @@
         <v>988</v>
       </c>
       <c r="C1021">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1022" spans="2:3" x14ac:dyDescent="0.2">
@@ -15282,7 +15256,7 @@
         <v>989</v>
       </c>
       <c r="C1022">
-        <v>378</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1023" spans="2:3" x14ac:dyDescent="0.2">
@@ -15290,7 +15264,7 @@
         <v>990</v>
       </c>
       <c r="C1023">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1024" spans="2:3" x14ac:dyDescent="0.2">
@@ -15298,7 +15272,7 @@
         <v>991</v>
       </c>
       <c r="C1024">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1025" spans="2:3" x14ac:dyDescent="0.2">
@@ -15306,7 +15280,7 @@
         <v>992</v>
       </c>
       <c r="C1025">
-        <v>370</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1026" spans="2:3" x14ac:dyDescent="0.2">
@@ -15314,7 +15288,7 @@
         <v>993</v>
       </c>
       <c r="C1026">
-        <v>223</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1027" spans="2:3" x14ac:dyDescent="0.2">
@@ -15322,7 +15296,7 @@
         <v>994</v>
       </c>
       <c r="C1027">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1028" spans="2:3" x14ac:dyDescent="0.2">
@@ -15330,7 +15304,7 @@
         <v>995</v>
       </c>
       <c r="C1028">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1029" spans="2:3" x14ac:dyDescent="0.2">
@@ -15338,7 +15312,7 @@
         <v>996</v>
       </c>
       <c r="C1029">
-        <v>223</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1030" spans="2:3" x14ac:dyDescent="0.2">
@@ -15346,7 +15320,7 @@
         <v>997</v>
       </c>
       <c r="C1030">
-        <v>384</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1031" spans="2:3" x14ac:dyDescent="0.2">
@@ -15354,7 +15328,7 @@
         <v>998</v>
       </c>
       <c r="C1031">
-        <v>337</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1032" spans="2:3" x14ac:dyDescent="0.2">
@@ -15362,7 +15336,7 @@
         <v>999</v>
       </c>
       <c r="C1032">
-        <v>314</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1033" spans="2:3" x14ac:dyDescent="0.2">
@@ -15370,7 +15344,7 @@
         <v>1000</v>
       </c>
       <c r="C1033">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1034" spans="2:3" x14ac:dyDescent="0.2">
@@ -15380,7 +15354,7 @@
       </c>
       <c r="C1034">
         <f ca="1">SUM(C34:C1033)</f>
-        <v>316408</v>
+        <v>314356</v>
       </c>
     </row>
     <row r="1035" spans="2:3" x14ac:dyDescent="0.2">
@@ -15390,7 +15364,7 @@
       </c>
       <c r="C1035">
         <f ca="1">SUM(C34:C1034)</f>
-        <v>632816</v>
+        <v>628712</v>
       </c>
     </row>
   </sheetData>
